--- a/data/iartypre17.xlsx
+++ b/data/iartypre17.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="11">
       <c r="A11">
-        <v>0.69604566865270279</v>
+        <v>0.93700810034686999</v>
       </c>
       <c r="B11">
-        <v>0.7544347222222223</v>
+        <v>0.92831171705718396</v>
       </c>
       <c r="C11">
-        <v>0.30395433134729732</v>
+        <v>0.062991899653130012</v>
       </c>
       <c r="D11">
-        <v>0.24556527777777779</v>
+        <v>0.071688282942816109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.020319758906404781</v>
+        <v>0.0048125952689498921</v>
       </c>
       <c r="B12">
-        <v>0.015910346670963277</v>
+        <v>0.0051183837681538632</v>
       </c>
       <c r="C12">
-        <v>0.020319758906404781</v>
+        <v>0.0048125952689498921</v>
       </c>
       <c r="D12">
-        <v>0.015910346670963277</v>
+        <v>0.0051183837681538632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>34.254622402695411</v>
+        <v>194.69912759801326</v>
       </c>
       <c r="B13">
-        <v>47.41786824790448</v>
+        <v>181.36813476806066</v>
       </c>
       <c r="C13">
-        <v>14.958559929148127</v>
+        <v>13.088966790858946</v>
       </c>
       <c r="D13">
-        <v>15.434313460054247</v>
+        <v>14.006039052572483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.2990619274672908e-181</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>1.8988698958658499e-280</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.2673874539446305e-46</v>
+        <v>1.6479260163162172e-38</v>
       </c>
       <c r="D14">
-        <v>2.7931360453641673e-49</v>
+        <v>9.6871640764703724e-44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.65618063562173834</v>
+        <v>0.9275732813708395</v>
       </c>
       <c r="B15">
-        <v>0.72322044952865572</v>
+        <v>0.91827741714130473</v>
       </c>
       <c r="C15">
-        <v>0.26408929831633288</v>
+        <v>0.053557080677099529</v>
       </c>
       <c r="D15">
-        <v>0.21435100508421123</v>
+        <v>0.06165398302693692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.73591070168366723</v>
+        <v>0.94644291932290048</v>
       </c>
       <c r="B16">
-        <v>0.78564899491578888</v>
+        <v>0.93834601697306319</v>
       </c>
       <c r="C16">
-        <v>0.34381936437826177</v>
+        <v>0.072426718629160489</v>
       </c>
       <c r="D16">
-        <v>0.27677955047134434</v>
+        <v>0.081722582858695297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B17">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C17">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D17">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B18">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C18">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D18">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="19">
@@ -182,114 +182,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.49433140990057478</v>
+        <v>0.89551638226589891</v>
       </c>
       <c r="B21">
-        <v>0.38512275326797385</v>
+        <v>0.81956471325460445</v>
       </c>
       <c r="C21">
-        <v>0.50566859009942511</v>
+        <v>0.10448361773410113</v>
       </c>
       <c r="D21">
-        <v>0.61487724673202615</v>
+        <v>0.18043528674539544</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.022067372024263603</v>
+        <v>0.005990825406402266</v>
       </c>
       <c r="B22">
-        <v>0.017815722478929708</v>
+        <v>0.0071932231013748758</v>
       </c>
       <c r="C22">
-        <v>0.022067372024263603</v>
+        <v>0.005990825406402266</v>
       </c>
       <c r="D22">
-        <v>0.017815722478929708</v>
+        <v>0.0071932231013748758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22.401009479381848</v>
+        <v>149.4813020771528</v>
       </c>
       <c r="B23">
-        <v>21.617015741205595</v>
+        <v>113.93567274424689</v>
       </c>
       <c r="C23">
-        <v>22.914762552760266</v>
+        <v>17.440604699052276</v>
       </c>
       <c r="D23">
-        <v>34.513180560554247</v>
+        <v>25.084066516845272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.4838744085947941e-93</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>3.680750992470527e-88</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3.9148118141241848e-97</v>
+        <v>3.7149840683122391e-66</v>
       </c>
       <c r="D24">
-        <v>2.434953952017555e-183</v>
+        <v>8.0104628787430905e-131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.45103776066458101</v>
+        <v>0.88377171019860856</v>
       </c>
       <c r="B25">
-        <v>0.35017035209213282</v>
+        <v>0.80546280897573475</v>
       </c>
       <c r="C25">
-        <v>0.46237494086343134</v>
+        <v>0.092738945666810749</v>
       </c>
       <c r="D25">
-        <v>0.57992484555618518</v>
+        <v>0.16633338246652574</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.53762505913656855</v>
+        <v>0.90726105433318927</v>
       </c>
       <c r="B26">
-        <v>0.42007515444381488</v>
+        <v>0.83366661753347415</v>
       </c>
       <c r="C26">
-        <v>0.54896223933541888</v>
+        <v>0.11622828980139151</v>
       </c>
       <c r="D26">
-        <v>0.64982964790786713</v>
+        <v>0.19453719102426514</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B27">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C27">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D27">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B28">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C28">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D28">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="29">
@@ -308,44 +308,44 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.9729136242382751</v>
+        <v>0.9943181583095726</v>
       </c>
       <c r="B31">
-        <v>0.98351376633986942</v>
+        <v>0.9951893632390153</v>
       </c>
       <c r="C31">
-        <v>0.027086375761725019</v>
+        <v>0.0056818416904275328</v>
       </c>
       <c r="D31">
-        <v>0.01648623366013072</v>
+        <v>0.0048106367609847978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0071397932679756393</v>
+        <v>0.0015127335456089483</v>
       </c>
       <c r="B32">
-        <v>0.0047065381973235357</v>
+        <v>0.0013850977656141464</v>
       </c>
       <c r="C32">
-        <v>0.0071397932679756393</v>
+        <v>0.0015127335456089483</v>
       </c>
       <c r="D32">
-        <v>0.0047065381973235357</v>
+        <v>0.0013850977656141464</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>136.26635782328853</v>
+        <v>657.29894150612722</v>
       </c>
       <c r="B33">
-        <v>208.96755218074372</v>
+        <v>718.49755876095332</v>
       </c>
       <c r="C33">
-        <v>3.7937198942743167</v>
+        <v>3.7560095807489464</v>
       </c>
       <c r="D33">
-        <v>3.5028364732078319</v>
+        <v>3.4731387779344098</v>
       </c>
     </row>
     <row r="34">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.00015558525053688775</v>
+        <v>0.00017462646697384543</v>
       </c>
       <c r="D34">
-        <v>0.00047676223969812147</v>
+        <v>0.00051881033150513094</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.95890616992874622</v>
+        <v>0.99135253033460613</v>
       </c>
       <c r="B35">
-        <v>0.97428007899337932</v>
+        <v>0.99247395794262827</v>
       </c>
       <c r="C35">
-        <v>0.013078921452196191</v>
+        <v>0.0027162137154610431</v>
       </c>
       <c r="D35">
-        <v>0.0072525463136406555</v>
+        <v>0.0020952314645977534</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.98692107854780398</v>
+        <v>0.99728378628453906</v>
       </c>
       <c r="B36">
-        <v>0.99274745368635953</v>
+        <v>0.99790476853540233</v>
       </c>
       <c r="C36">
-        <v>0.041093830071253848</v>
+        <v>0.0086474696653940225</v>
       </c>
       <c r="D36">
-        <v>0.025719921006620787</v>
+        <v>0.0075260420573718418</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B37">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C37">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D37">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B38">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C38">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D38">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="39">
@@ -434,114 +434,114 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.83670929720844733</v>
+        <v>0.96602610257518173</v>
       </c>
       <c r="B41">
-        <v>0.87692875816993487</v>
+        <v>0.96361561194621181</v>
       </c>
       <c r="C41">
-        <v>0.16329070279155256</v>
+        <v>0.033973897424818281</v>
       </c>
       <c r="D41">
-        <v>0.12307124183006535</v>
+        <v>0.036384388053788123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.016302044051420304</v>
+        <v>0.0036180627150804727</v>
       </c>
       <c r="B42">
-        <v>0.012059573019876878</v>
+        <v>0.0037534812463695514</v>
       </c>
       <c r="C42">
-        <v>0.016302044051420304</v>
+        <v>0.0036180627150804727</v>
       </c>
       <c r="D42">
-        <v>0.012059573019876878</v>
+        <v>0.0037534812463695514</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>51.325422417537247</v>
+        <v>267.00092802390668</v>
       </c>
       <c r="B43">
-        <v>72.71640187629859</v>
+        <v>256.72583628284855</v>
       </c>
       <c r="C43">
-        <v>10.01657842884592</v>
+        <v>9.3900797471562445</v>
       </c>
       <c r="D43">
-        <v>10.205273572059008</v>
+        <v>9.6935046868769881</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.2023691261964026e-308</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>9.2517777247942294e-23</v>
+        <v>8.9138384353130636e-21</v>
       </c>
       <c r="D44">
-        <v>1.561741668464328e-23</v>
+        <v>5.0363362937247193e-22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.80472655924509162</v>
+        <v>0.95893309664947091</v>
       </c>
       <c r="B45">
-        <v>0.85326926107692624</v>
+        <v>0.95625712570119059</v>
       </c>
       <c r="C45">
-        <v>0.13130796482819684</v>
+        <v>0.026880891499107426</v>
       </c>
       <c r="D45">
-        <v>0.099411744737056745</v>
+        <v>0.0290259018087669</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.86869203517180305</v>
+        <v>0.97311910850089256</v>
       </c>
       <c r="B46">
-        <v>0.9005882552629435</v>
+        <v>0.97097409819123304</v>
       </c>
       <c r="C46">
-        <v>0.19527344075490827</v>
+        <v>0.041066903350529135</v>
       </c>
       <c r="D46">
-        <v>0.14673073892307395</v>
+        <v>0.043742874298809346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B47">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C47">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D47">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B48">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C48">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D48">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="49">
@@ -560,162 +560,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.71875</v>
+        <v>0.9809725158562369</v>
       </c>
       <c r="B51">
-        <v>0.70467289719626169</v>
+        <v>0.9157333333333334</v>
       </c>
       <c r="C51">
-        <v>0.75694444444444442</v>
+        <v>0.88225399495374268</v>
       </c>
       <c r="D51">
-        <v>0.28125</v>
+        <v>0.019027484143763214</v>
       </c>
       <c r="E51">
-        <v>0.29532710280373831</v>
+        <v>0.08426666666666667</v>
       </c>
       <c r="F51">
-        <v>0.24305555555555552</v>
+        <v>0.11774600504625736</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.039740214744874616</v>
+        <v>0.0031409320292096832</v>
       </c>
       <c r="B52">
-        <v>0.019722798855107849</v>
+        <v>0.0064152233759209925</v>
       </c>
       <c r="C52">
-        <v>0.017872015702178532</v>
+        <v>0.0093471450034567638</v>
       </c>
       <c r="D52">
-        <v>0.039740214744874616</v>
+        <v>0.0031409320292096832</v>
       </c>
       <c r="E52">
-        <v>0.019722798855107849</v>
+        <v>0.0064152233759209925</v>
       </c>
       <c r="F52">
-        <v>0.017872015702178532</v>
+        <v>0.0093471450034567638</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>18.086213288334051</v>
+        <v>312.31892531691233</v>
       </c>
       <c r="B53">
-        <v>35.72884874875475</v>
+        <v>142.7437954491908</v>
       </c>
       <c r="C53">
-        <v>42.353613440042785</v>
+        <v>94.387537010227959</v>
       </c>
       <c r="D53">
-        <v>7.0772138954350625</v>
+        <v>6.0579101893366607</v>
       </c>
       <c r="E53">
-        <v>14.97389417056565</v>
+        <v>13.135422062301773</v>
       </c>
       <c r="F53">
-        <v>13.59978413212383</v>
+        <v>12.597002079534713</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4.7406206540876045e-65</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>1.2554089605445959e-192</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>6.609305028623719e-243</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2.4586706782121645e-12</v>
+        <v>1.4809165871743132e-09</v>
       </c>
       <c r="E54">
-        <v>1.0426984836660438e-46</v>
+        <v>9.1159266299739422e-39</v>
       </c>
       <c r="F54">
-        <v>2.3400037905283485e-39</v>
+        <v>7.733572874051617e-36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.64078426326270566</v>
+        <v>0.97481489747041417</v>
       </c>
       <c r="B55">
-        <v>0.66597903121864344</v>
+        <v>0.90315665321374783</v>
       </c>
       <c r="C55">
-        <v>0.72188160243047284</v>
+        <v>0.86392944943891381</v>
       </c>
       <c r="D55">
-        <v>0.20328426326270566</v>
+        <v>0.012869865757940462</v>
       </c>
       <c r="E55">
-        <v>0.25663323682612005</v>
+        <v>0.0716899865470811</v>
       </c>
       <c r="F55">
-        <v>0.20799271354158397</v>
+        <v>0.099421459531428488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.79671573673729434</v>
+        <v>0.98713013424205964</v>
       </c>
       <c r="B56">
-        <v>0.74336676317387995</v>
+        <v>0.92831001345291897</v>
       </c>
       <c r="C56">
-        <v>0.792007286458416</v>
+        <v>0.90057854046857155</v>
       </c>
       <c r="D56">
-        <v>0.35921573673729434</v>
+        <v>0.025185102529585966</v>
       </c>
       <c r="E56">
-        <v>0.33402096878135656</v>
+        <v>0.096843346786252241</v>
       </c>
       <c r="F56">
-        <v>0.27811839756952711</v>
+        <v>0.13607055056108622</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B57">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C57">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D57">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E57">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F57">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B58">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C58">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D58">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E58">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F58">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="59">
@@ -740,162 +740,162 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.5234375</v>
+        <v>0.96775898520084558</v>
       </c>
       <c r="B61">
-        <v>0.46542056074766353</v>
+        <v>0.84746666666666681</v>
       </c>
       <c r="C61">
-        <v>0.37847222222222221</v>
+        <v>0.69890664423885618</v>
       </c>
       <c r="D61">
-        <v>0.4765625</v>
+        <v>0.032241014799154331</v>
       </c>
       <c r="E61">
-        <v>0.53457943925233642</v>
+        <v>0.15253333333333333</v>
       </c>
       <c r="F61">
-        <v>0.62152777777777779</v>
+        <v>0.30109335576114382</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.04414559395428011</v>
+        <v>0.0040609476552013008</v>
       </c>
       <c r="B62">
-        <v>0.021565126849597736</v>
+        <v>0.0083031533144319811</v>
       </c>
       <c r="C62">
-        <v>0.020208591030504472</v>
+        <v>0.013303601985973891</v>
       </c>
       <c r="D62">
-        <v>0.04414559395428011</v>
+        <v>0.0040609476552013008</v>
       </c>
       <c r="E62">
-        <v>0.021565126849597736</v>
+        <v>0.0083031533144319811</v>
       </c>
       <c r="F62">
-        <v>0.020208591030504472</v>
+        <v>0.013303601985973891</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>11.857072317162705</v>
+        <v>238.30865782308979</v>
       </c>
       <c r="B63">
-        <v>21.582092421419965</v>
+        <v>102.06564115751752</v>
       </c>
       <c r="C63">
-        <v>18.728283513230874</v>
+        <v>52.535143863723512</v>
       </c>
       <c r="D63">
-        <v>10.795244945476494</v>
+        <v>7.939283521140621</v>
       </c>
       <c r="E63">
-        <v>24.789070010145021</v>
+        <v>18.370530755852741</v>
       </c>
       <c r="F63">
-        <v>30.755621549250701</v>
+        <v>22.632468716261151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>8.5973453478854752e-31</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>6.3719577044104661e-88</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4.322500026822591e-69</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>5.0316669339232776e-26</v>
+        <v>2.4965292051562758e-15</v>
       </c>
       <c r="E64">
-        <v>1.8945140948459505e-110</v>
+        <v>5.7203178470173072e-73</v>
       </c>
       <c r="F64">
-        <v>1.0074056075908775e-154</v>
+        <v>5.273303777159227e-108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.4368289152591539</v>
+        <v>0.95979772856969736</v>
       </c>
       <c r="B65">
-        <v>0.42311225885609055</v>
+        <v>0.83118880740903867</v>
       </c>
       <c r="C65">
-        <v>0.33882528779494497</v>
+        <v>0.67282569010655258</v>
       </c>
       <c r="D65">
-        <v>0.3899539152591539</v>
+        <v>0.024279758168006142</v>
       </c>
       <c r="E65">
-        <v>0.49227113736076344</v>
+        <v>0.13625547407570521</v>
       </c>
       <c r="F65">
-        <v>0.58188084335050061</v>
+        <v>0.27501240162884028</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.6100460847408461</v>
+        <v>0.9757202418319938</v>
       </c>
       <c r="B66">
-        <v>0.50772886263923644</v>
+        <v>0.86374452592429496</v>
       </c>
       <c r="C66">
-        <v>0.41811915664949945</v>
+        <v>0.72498759837115978</v>
       </c>
       <c r="D66">
-        <v>0.5631710847408461</v>
+        <v>0.040202271430302521</v>
       </c>
       <c r="E66">
-        <v>0.57688774114390939</v>
+        <v>0.16881119259096145</v>
       </c>
       <c r="F66">
-        <v>0.66117471220505497</v>
+        <v>0.32717430989344737</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B67">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C67">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D67">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E67">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F67">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B68">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C68">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D68">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E68">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F68">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="69">
@@ -920,62 +920,62 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.96875</v>
+        <v>0.9978858350951374</v>
       </c>
       <c r="B71">
-        <v>0.97196261682242979</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C71">
-        <v>0.9878472222222221</v>
+        <v>0.99411269974768712</v>
       </c>
       <c r="D71">
-        <v>0.03125</v>
+        <v>0.0021141649048625794</v>
       </c>
       <c r="E71">
-        <v>0.02803738317757009</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="F71">
-        <v>0.012152777777777778</v>
+        <v>0.0058873002523128683</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.015378921628929319</v>
+        <v>0.0010559644378906202</v>
       </c>
       <c r="B72">
-        <v>0.0071370153087960504</v>
+        <v>0.0020573121623451637</v>
       </c>
       <c r="C72">
-        <v>0.0045653221427921489</v>
+        <v>0.0022186304862898383</v>
       </c>
       <c r="D72">
-        <v>0.015378921628929319</v>
+        <v>0.0010559644378906202</v>
       </c>
       <c r="E72">
-        <v>0.0071370153087960504</v>
+        <v>0.0020573121623451637</v>
       </c>
       <c r="F72">
-        <v>0.0045653221427921489</v>
+        <v>0.0022186304862898383</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>62.992062992094489</v>
+        <v>944.99947089932323</v>
       </c>
       <c r="B73">
-        <v>136.18614711734324</v>
+        <v>482.18253804964775</v>
       </c>
       <c r="C73">
-        <v>216.38061703528663</v>
+        <v>448.07492995830847</v>
       </c>
       <c r="D73">
-        <v>2.0320020320030481</v>
+        <v>2.0021175230917869</v>
       </c>
       <c r="E73">
-        <v>3.9284465514618239</v>
+        <v>3.8885688552390949</v>
       </c>
       <c r="F73">
-        <v>2.6619759564973755</v>
+        <v>2.6535740352860908</v>
       </c>
     </row>
     <row r="74">
@@ -989,93 +989,93 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.042366954026933377</v>
+        <v>0.045326520972741861</v>
       </c>
       <c r="E74">
-        <v>9.0226402342268144e-05</v>
+        <v>0.00010215740102797255</v>
       </c>
       <c r="F74">
-        <v>0.0078691047107049897</v>
+        <v>0.0079898654792868243</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.93857832219900805</v>
+        <v>0.99581567694556217</v>
       </c>
       <c r="B75">
-        <v>0.95796061254973275</v>
+        <v>0.98796675665744316</v>
       </c>
       <c r="C75">
-        <v>0.97889058455453615</v>
+        <v>0.9897632010171582</v>
       </c>
       <c r="D75">
-        <v>0.0010783221990080874</v>
+        <v>4.4006755287355741e-05</v>
       </c>
       <c r="E75">
-        <v>0.014035378904873051</v>
+        <v>0.0039667566574432111</v>
       </c>
       <c r="F75">
-        <v>0.0031961401100918142</v>
+        <v>0.0015378015217839356</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.99892167780099195</v>
+        <v>0.99995599324471263</v>
       </c>
       <c r="B76">
-        <v>0.98596462109512684</v>
+        <v>0.99603324334255683</v>
       </c>
       <c r="C76">
-        <v>0.99680385988990805</v>
+        <v>0.99846219847821605</v>
       </c>
       <c r="D76">
-        <v>0.061421677800991913</v>
+        <v>0.0041843230544378034</v>
       </c>
       <c r="E76">
-        <v>0.042039387450267127</v>
+        <v>0.012033243342556789</v>
       </c>
       <c r="F76">
-        <v>0.021109415445463742</v>
+        <v>0.010236798982841801</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B77">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C77">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D77">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E77">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F77">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B78">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C78">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D78">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E78">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F78">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="79">
@@ -1100,67 +1100,67 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.7890625</v>
+        <v>0.98572938689217759</v>
       </c>
       <c r="B81">
-        <v>0.85794392523364471</v>
+        <v>0.95946666666666669</v>
       </c>
       <c r="C81">
-        <v>0.87673611111111105</v>
+        <v>0.9402859545836838</v>
       </c>
       <c r="D81">
-        <v>0.2109375</v>
+        <v>0.01427061310782241</v>
       </c>
       <c r="E81">
-        <v>0.14205607476635515</v>
+        <v>0.040533333333333331</v>
       </c>
       <c r="F81">
-        <v>0.12326388888888888</v>
+        <v>0.059714045416316232</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.036060157104759287</v>
+        <v>0.0027267140883358494</v>
       </c>
       <c r="B82">
-        <v>0.01509323958266361</v>
+        <v>0.0045542877802336231</v>
       </c>
       <c r="C82">
-        <v>0.013697494612311385</v>
+        <v>0.0068719073292459725</v>
       </c>
       <c r="D82">
-        <v>0.036060157104759287</v>
+        <v>0.0027267140883358494</v>
       </c>
       <c r="E82">
-        <v>0.01509323958266361</v>
+        <v>0.0045542877802336231</v>
       </c>
       <c r="F82">
-        <v>0.013697494612311385</v>
+        <v>0.0068719073292459725</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>21.881837555717638</v>
+        <v>361.5081577892098</v>
       </c>
       <c r="B83">
-        <v>56.84292762563021</v>
+        <v>210.67326286031238</v>
       </c>
       <c r="C83">
-        <v>64.007041866115841</v>
+        <v>136.83041832970378</v>
       </c>
       <c r="D83">
-        <v>5.8496001386571903</v>
+        <v>5.2336301663853435</v>
       </c>
       <c r="E83">
-        <v>9.4119008704747209</v>
+        <v>8.9000377862055249</v>
       </c>
       <c r="F83">
-        <v>8.9990098465232187</v>
+        <v>8.6895882839078418</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>5.6634986364547228e-90</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1169,93 +1169,93 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>6.3020554576166694e-09</v>
+        <v>1.7307373596745088e-07</v>
       </c>
       <c r="E84">
-        <v>2.2947977106743717e-20</v>
+        <v>7.6977547420342214e-19</v>
       </c>
       <c r="F84">
-        <v>8.3806050665687114e-19</v>
+        <v>4.8730692872066106e-18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.7183166136583129</v>
+        <v>0.98038381919218398</v>
       </c>
       <c r="B85">
-        <v>0.8283327227937628</v>
+        <v>0.95053824481318561</v>
       </c>
       <c r="C85">
-        <v>0.84986319998670123</v>
+        <v>0.9268139715790461</v>
       </c>
       <c r="D85">
-        <v>0.14019161365831292</v>
+        <v>0.0089250454078287737</v>
       </c>
       <c r="E85">
-        <v>0.11244487232647327</v>
+        <v>0.031604911479852241</v>
       </c>
       <c r="F85">
-        <v>0.096390977764479052</v>
+        <v>0.046242062411678511</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.8598083863416871</v>
+        <v>0.99107495459217121</v>
       </c>
       <c r="B86">
-        <v>0.88755512767352662</v>
+        <v>0.96839508852014777</v>
       </c>
       <c r="C86">
-        <v>0.90360902223552086</v>
+        <v>0.9537579375883215</v>
       </c>
       <c r="D86">
-        <v>0.2816833863416871</v>
+        <v>0.019616180807816047</v>
       </c>
       <c r="E86">
-        <v>0.17166727720623703</v>
+        <v>0.049461755186814421</v>
       </c>
       <c r="F86">
-        <v>0.15013680001329871</v>
+        <v>0.073186028420953952</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B87">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C87">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D87">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E87">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F87">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B88">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C88">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D88">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E88">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F88">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="89">
@@ -1280,306 +1280,306 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.82152866881166875</v>
+        <v>0.94394183017297872</v>
       </c>
       <c r="B91">
-        <v>0.60438846723919959</v>
+        <v>0.90017862222087042</v>
       </c>
       <c r="C91">
-        <v>0.6927487711213518</v>
+        <v>0.9344047511883542</v>
       </c>
       <c r="D91">
-        <v>0.61869984615384621</v>
+        <v>0.92898501382331111</v>
       </c>
       <c r="E91">
-        <v>0.67135833333333328</v>
+        <v>0.95251784219908053</v>
       </c>
       <c r="F91">
-        <v>0.76090075283243896</v>
+        <v>0.91517691991034089</v>
       </c>
       <c r="G91">
-        <v>0.17847133118833119</v>
+        <v>0.056058169827021387</v>
       </c>
       <c r="H91">
-        <v>0.39561153276080036</v>
+        <v>0.099821377779129528</v>
       </c>
       <c r="I91">
-        <v>0.3072512288786482</v>
+        <v>0.06559524881164587</v>
       </c>
       <c r="J91">
-        <v>0.38130015384615379</v>
+        <v>0.071014986176688832</v>
       </c>
       <c r="K91">
-        <v>0.32864166666666667</v>
+        <v>0.047482157800919411</v>
       </c>
       <c r="L91">
-        <v>0.23909924716756112</v>
+        <v>0.084823080089659039</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.016066966382872444</v>
+        <v>0.0054972558948363842</v>
       </c>
       <c r="B92">
-        <v>0.029182889525698658</v>
+        <v>0.0087420635582790389</v>
       </c>
       <c r="C92">
-        <v>0.048966414058008806</v>
+        <v>0.01175606488104896</v>
       </c>
       <c r="D92">
-        <v>0.048325613720224966</v>
+        <v>0.011233473102903012</v>
       </c>
       <c r="E92">
-        <v>0.04981276123526733</v>
+        <v>0.0086657253866697752</v>
       </c>
       <c r="F92">
-        <v>0.049855868422587914</v>
+        <v>0.018209798340161468</v>
       </c>
       <c r="G92">
-        <v>0.016066966382872444</v>
+        <v>0.0054972558948363842</v>
       </c>
       <c r="H92">
-        <v>0.029182889525698658</v>
+        <v>0.0087420635582790389</v>
       </c>
       <c r="I92">
-        <v>0.048966414058008806</v>
+        <v>0.01175606488104896</v>
       </c>
       <c r="J92">
-        <v>0.048325613720224966</v>
+        <v>0.011233473102903012</v>
       </c>
       <c r="K92">
-        <v>0.04981276123526733</v>
+        <v>0.0086657253866697752</v>
       </c>
       <c r="L92">
-        <v>0.049855868422587914</v>
+        <v>0.018209798340161468</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>51.131535925003675</v>
+        <v>171.71145899531996</v>
       </c>
       <c r="B93">
-        <v>20.710370942088201</v>
+        <v>102.97095373647448</v>
       </c>
       <c r="C93">
-        <v>14.147427056853223</v>
+        <v>79.482782771523802</v>
       </c>
       <c r="D93">
-        <v>12.802731274883145</v>
+        <v>82.697933694543508</v>
       </c>
       <c r="E93">
-        <v>13.477637390195767</v>
+        <v>109.91784296145711</v>
       </c>
       <c r="F93">
-        <v>15.26200980760977</v>
+        <v>50.257389061356619</v>
       </c>
       <c r="G93">
-        <v>11.107966926387766</v>
+        <v>10.197482325623092</v>
       </c>
       <c r="H93">
-        <v>13.556283808442686</v>
+        <v>11.418514303135581</v>
       </c>
       <c r="I93">
-        <v>6.2747341170349609</v>
+        <v>5.5796943514140418</v>
       </c>
       <c r="J93">
-        <v>7.8902288971153647</v>
+        <v>6.321730200995165</v>
       </c>
       <c r="K93">
-        <v>6.5975396367706081</v>
+        <v>5.4793056186571283</v>
       </c>
       <c r="L93">
-        <v>4.7958094951011585</v>
+        <v>4.6581010127159326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2.895312511101152e-307</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>4.9625226378788907e-82</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.1594277328804304e-42</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>2.4919156739511794e-35</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>9.9547576413930146e-39</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>2.598978036109048e-48</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>2.1617969213163635e-27</v>
+        <v>3.5219850233494616e-24</v>
       </c>
       <c r="H94">
-        <v>3.9231286323630434e-39</v>
+        <v>7.9564665404413152e-30</v>
       </c>
       <c r="I94">
-        <v>4.835476866394248e-10</v>
+        <v>2.5375429595960111e-08</v>
       </c>
       <c r="J94">
-        <v>6.5995107711854084e-15</v>
+        <v>2.8136099303554503e-10</v>
       </c>
       <c r="K94">
-        <v>6.1841397878424014e-11</v>
+        <v>4.4812617284683075e-08</v>
       </c>
       <c r="L94">
-        <v>1.8172071806536669e-06</v>
+        <v>3.2749466229569491e-06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.79000712623279901</v>
+        <v>0.93316477302725809</v>
       </c>
       <c r="B95">
-        <v>0.5471349899592961</v>
+        <v>0.88304030442351433</v>
       </c>
       <c r="C95">
-        <v>0.59668229106015791</v>
+        <v>0.91135765542719993</v>
       </c>
       <c r="D95">
-        <v>0.5238905427525562</v>
+        <v>0.90696242948471095</v>
       </c>
       <c r="E95">
-        <v>0.57363141732245693</v>
+        <v>0.93552918104015848</v>
       </c>
       <c r="F95">
-        <v>0.66308926547136482</v>
+        <v>0.87947764720442478</v>
       </c>
       <c r="G95">
-        <v>0.14694978860946148</v>
+        <v>0.04528111268130075</v>
       </c>
       <c r="H95">
-        <v>0.33835805548089681</v>
+        <v>0.082683059981773444</v>
       </c>
       <c r="I95">
-        <v>0.21118474881745425</v>
+        <v>0.042548153050491581</v>
       </c>
       <c r="J95">
-        <v>0.28649085044486372</v>
+        <v>0.048992401838088624</v>
       </c>
       <c r="K95">
-        <v>0.23091475065579026</v>
+        <v>0.030493496641997356</v>
       </c>
       <c r="L95">
-        <v>0.141287759806487</v>
+        <v>0.049123807383742953</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.85305021139053849</v>
+        <v>0.95471888731869936</v>
       </c>
       <c r="B96">
-        <v>0.66164194451910308</v>
+        <v>0.9173169400182265</v>
       </c>
       <c r="C96">
-        <v>0.7888152511825457</v>
+        <v>0.95745184694950847</v>
       </c>
       <c r="D96">
-        <v>0.71350914955513622</v>
+        <v>0.95100759816191127</v>
       </c>
       <c r="E96">
-        <v>0.76908524934420963</v>
+        <v>0.96950650335800259</v>
       </c>
       <c r="F96">
-        <v>0.85871224019351311</v>
+        <v>0.950876192616257</v>
       </c>
       <c r="G96">
-        <v>0.20999287376720091</v>
+        <v>0.066835226972742023</v>
       </c>
       <c r="H96">
-        <v>0.4528650100407039</v>
+        <v>0.11695969557648561</v>
       </c>
       <c r="I96">
-        <v>0.40331770893984215</v>
+        <v>0.088642344572800152</v>
       </c>
       <c r="J96">
-        <v>0.47610945724744386</v>
+        <v>0.093037570515289048</v>
       </c>
       <c r="K96">
-        <v>0.42636858267754307</v>
+        <v>0.064470818959841469</v>
       </c>
       <c r="L96">
-        <v>0.33691073452863524</v>
+        <v>0.12052235279557513</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="G97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="H97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="I97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="J97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="K97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="L97">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="G98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="H98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="I98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="J98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="K98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="L98">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="99">
@@ -1622,306 +1622,306 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.34980032561132557</v>
+        <v>0.80155713327839206</v>
       </c>
       <c r="B101">
-        <v>0.5598637743580801</v>
+        <v>0.88756810547766063</v>
       </c>
       <c r="C101">
-        <v>0.48098186306780777</v>
+        <v>0.89522476827094477</v>
       </c>
       <c r="D101">
-        <v>0.49647969230769229</v>
+        <v>0.90145278626731196</v>
       </c>
       <c r="E101">
-        <v>0.49100277777777779</v>
+        <v>0.92553940425931136</v>
       </c>
       <c r="F101">
-        <v>0.34394252385211688</v>
+        <v>0.77571704405362307</v>
       </c>
       <c r="G101">
-        <v>0.65019967438867443</v>
+        <v>0.19844286672160794</v>
       </c>
       <c r="H101">
-        <v>0.44013622564191995</v>
+        <v>0.11243189452233951</v>
       </c>
       <c r="I101">
-        <v>0.51901813693219223</v>
+        <v>0.10477523172905526</v>
       </c>
       <c r="J101">
-        <v>0.5035203076923076</v>
+        <v>0.09854721373268803</v>
       </c>
       <c r="K101">
-        <v>0.50899722222222221</v>
+        <v>0.074460595740688612</v>
       </c>
       <c r="L101">
-        <v>0.65605747614788312</v>
+        <v>0.22428295594637704</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.019839935216935965</v>
+        <v>0.0090233974383927412</v>
       </c>
       <c r="B102">
-        <v>0.029634611001537848</v>
+        <v>0.0091992062101745129</v>
       </c>
       <c r="C102">
-        <v>0.054259093727514154</v>
+        <v>0.014765399957300971</v>
       </c>
       <c r="D102">
-        <v>0.049264067002728548</v>
+        <v>0.013130410924794321</v>
       </c>
       <c r="E102">
-        <v>0.052709792998924157</v>
+        <v>0.010536834123019766</v>
       </c>
       <c r="F102">
-        <v>0.055475997847800773</v>
+        <v>0.026347014699611322</v>
       </c>
       <c r="G102">
-        <v>0.019839935216935965</v>
+        <v>0.0090233974383927412</v>
       </c>
       <c r="H102">
-        <v>0.029634611001537848</v>
+        <v>0.0091992062101745129</v>
       </c>
       <c r="I102">
-        <v>0.054259093727514154</v>
+        <v>0.014765399957300971</v>
       </c>
       <c r="J102">
-        <v>0.049264067002728548</v>
+        <v>0.013130410924794321</v>
       </c>
       <c r="K102">
-        <v>0.052709792998924157</v>
+        <v>0.010536834123019766</v>
       </c>
       <c r="L102">
-        <v>0.055475997847800773</v>
+        <v>0.026347014699611322</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>17.631122369428176</v>
+        <v>88.830968462934777</v>
       </c>
       <c r="B103">
-        <v>18.892226198920806</v>
+        <v>96.483118782139258</v>
       </c>
       <c r="C103">
-        <v>8.8645391956465254</v>
+        <v>60.629903074741136</v>
       </c>
       <c r="D103">
-        <v>10.077927432994807</v>
+        <v>68.653813763367239</v>
       </c>
       <c r="E103">
-        <v>9.3152097521574309</v>
+        <v>87.838471542158018</v>
       </c>
       <c r="F103">
-        <v>6.199843845904824</v>
+        <v>29.442312645199483</v>
       </c>
       <c r="G103">
-        <v>32.772268017974397</v>
+        <v>21.992034383554188</v>
       </c>
       <c r="H103">
-        <v>14.852100660915701</v>
+        <v>12.221912625242329</v>
       </c>
       <c r="I103">
-        <v>9.5655511597497291</v>
+        <v>7.0959968596886931</v>
       </c>
       <c r="J103">
-        <v>10.220843270297182</v>
+        <v>7.5052650139532249</v>
       </c>
       <c r="K103">
-        <v>9.6565968724751237</v>
+        <v>7.0666952588742893</v>
       </c>
       <c r="L103">
-        <v>11.825969817573839</v>
+        <v>8.5126515661634219</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>3.0915917332260908e-62</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>3.9048243542304217e-70</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>2.6257312855911672e-18</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5.2040548031663532e-23</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>5.3949683820279163e-20</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>7.6900614360569775e-10</v>
+        <v>1.011276898356084e-175</v>
       </c>
       <c r="G104">
-        <v>4.7236780146887071e-170</v>
+        <v>2.3568836567106967e-102</v>
       </c>
       <c r="H104">
-        <v>4.8938993159464586e-46</v>
+        <v>7.2689302885773588e-34</v>
       </c>
       <c r="I104">
-        <v>5.8096990220325912e-21</v>
+        <v>1.4656264198275375e-12</v>
       </c>
       <c r="J104">
-        <v>1.3468713143179497e-23</v>
+        <v>7.2270190868802512e-14</v>
       </c>
       <c r="K104">
-        <v>2.551578203362438e-21</v>
+        <v>1.8069559662580545e-12</v>
       </c>
       <c r="L104">
-        <v>1.1995739183911808e-30</v>
+        <v>2.2263017362322617e-17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.31087665154617466</v>
+        <v>0.78386727642936826</v>
       </c>
       <c r="B105">
-        <v>0.50172407142766218</v>
+        <v>0.86953358554282512</v>
       </c>
       <c r="C105">
-        <v>0.37453175341637102</v>
+        <v>0.86627804245657558</v>
       </c>
       <c r="D105">
-        <v>0.39982925135760827</v>
+        <v>0.87571136334824762</v>
       </c>
       <c r="E105">
-        <v>0.38759221820194112</v>
+        <v>0.90488254097131571</v>
       </c>
       <c r="F105">
-        <v>0.23510498809123687</v>
+        <v>0.72406522204119628</v>
       </c>
       <c r="G105">
-        <v>0.61127600032352347</v>
+        <v>0.18075300987258416</v>
       </c>
       <c r="H105">
-        <v>0.38199652271150197</v>
+        <v>0.094397374587503996</v>
       </c>
       <c r="I105">
-        <v>0.41256802728075548</v>
+        <v>0.075828505914686067</v>
       </c>
       <c r="J105">
-        <v>0.40686986674222358</v>
+        <v>0.072805790813623678</v>
       </c>
       <c r="K105">
-        <v>0.40558666264638554</v>
+        <v>0.053803732452693001</v>
       </c>
       <c r="L105">
-        <v>0.54721994038700306</v>
+        <v>0.17263113393395027</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.38872399967647647</v>
+        <v>0.81924699012741586</v>
       </c>
       <c r="B106">
-        <v>0.61800347728849803</v>
+        <v>0.90560262541249614</v>
       </c>
       <c r="C106">
-        <v>0.58743197271924452</v>
+        <v>0.92417149408531396</v>
       </c>
       <c r="D106">
-        <v>0.5931301332577763</v>
+        <v>0.92719420918637629</v>
       </c>
       <c r="E106">
-        <v>0.59441333735361446</v>
+        <v>0.94619626754730701</v>
       </c>
       <c r="F106">
-        <v>0.45278005961299689</v>
+        <v>0.82736886606604987</v>
       </c>
       <c r="G106">
-        <v>0.68912334845382539</v>
+        <v>0.21613272357063171</v>
       </c>
       <c r="H106">
-        <v>0.49827592857233793</v>
+        <v>0.13046641445717502</v>
       </c>
       <c r="I106">
-        <v>0.62546824658362898</v>
+        <v>0.13372195754342445</v>
       </c>
       <c r="J106">
-        <v>0.60017074864239162</v>
+        <v>0.12428863665175238</v>
       </c>
       <c r="K106">
-        <v>0.61240778179805888</v>
+        <v>0.095117459028684223</v>
       </c>
       <c r="L106">
-        <v>0.76489501190876319</v>
+        <v>0.27593477795880383</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="G107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="H107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="I107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="J107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="K107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="L107">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="G108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="H108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="I108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="J108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="K108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="L108">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="109">
@@ -1964,116 +1964,116 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.98009766409266419</v>
+        <v>0.99338415745434383</v>
       </c>
       <c r="B111">
-        <v>0.97574579798596273</v>
+        <v>0.99378712430426719</v>
       </c>
       <c r="C111">
-        <v>0.98237551020408154</v>
+        <v>0.99595401069518696</v>
       </c>
       <c r="D111">
-        <v>0.97409199999999996</v>
+        <v>0.9956517241379309</v>
       </c>
       <c r="E111">
-        <v>0.97417361111111112</v>
+        <v>0.99657137849079036</v>
       </c>
       <c r="F111">
-        <v>0.98995813953488354</v>
+        <v>0.9960178947368421</v>
       </c>
       <c r="G111">
-        <v>0.019902335907335908</v>
+        <v>0.0066158425456560978</v>
       </c>
       <c r="H111">
-        <v>0.024254202014037229</v>
+        <v>0.006212875695732839</v>
       </c>
       <c r="I111">
-        <v>0.01762448979591837</v>
+        <v>0.0040459893048128345</v>
       </c>
       <c r="J111">
-        <v>0.025907999999999997</v>
+        <v>0.0043482758620689652</v>
       </c>
       <c r="K111">
-        <v>0.025826388888888892</v>
+        <v>0.0034286215092097444</v>
       </c>
       <c r="L111">
-        <v>0.01004186046511628</v>
+        <v>0.0039821052631578953</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0060166366442656709</v>
+        <v>0.0020347334027541108</v>
       </c>
       <c r="B112">
-        <v>0.00916103455350235</v>
+        <v>0.0023451862272659868</v>
       </c>
       <c r="C112">
-        <v>0.01220541202584473</v>
+        <v>0.0028456061679133456</v>
       </c>
       <c r="D112">
-        <v>0.014502310116667616</v>
+        <v>0.0024960085037432776</v>
       </c>
       <c r="E112">
-        <v>0.017550702019897852</v>
+        <v>0.0025029629497453991</v>
       </c>
       <c r="F112">
-        <v>0.0099244077642251585</v>
+        <v>0.0039610913683847566</v>
       </c>
       <c r="G112">
-        <v>0.0060166366442656709</v>
+        <v>0.0020347334027541108</v>
       </c>
       <c r="H112">
-        <v>0.00916103455350235</v>
+        <v>0.0023451862272659868</v>
       </c>
       <c r="I112">
-        <v>0.01220541202584473</v>
+        <v>0.0028456061679133456</v>
       </c>
       <c r="J112">
-        <v>0.014502310116667616</v>
+        <v>0.0024960085037432776</v>
       </c>
       <c r="K112">
-        <v>0.017550702019897852</v>
+        <v>0.0025029629497453991</v>
       </c>
       <c r="L112">
-        <v>0.0099244077642251585</v>
+        <v>0.0039610913683847566</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>162.89793152570957</v>
+        <v>488.21342201870277</v>
       </c>
       <c r="B113">
-        <v>106.51043747159821</v>
+        <v>423.75616603497718</v>
       </c>
       <c r="C113">
-        <v>80.4868781261886</v>
+        <v>349.99713661202458</v>
       </c>
       <c r="D113">
-        <v>67.16805751384868</v>
+        <v>398.8975689164306</v>
       </c>
       <c r="E113">
-        <v>55.506247556744796</v>
+        <v>398.15666412168082</v>
       </c>
       <c r="F113">
-        <v>99.749845336204189</v>
+        <v>251.45037114935212</v>
       </c>
       <c r="G113">
-        <v>3.3078839697431959</v>
+        <v>3.2514542380349352</v>
       </c>
       <c r="H113">
-        <v>2.6475396280177348</v>
+        <v>2.6492035572696486</v>
       </c>
       <c r="I113">
-        <v>1.4439897447623107</v>
+        <v>1.4218374104030418</v>
       </c>
       <c r="J113">
-        <v>1.7864740025262413</v>
+        <v>1.7420917659326209</v>
       </c>
       <c r="K113">
-        <v>1.471530247599703</v>
+        <v>1.3698251144942051</v>
       </c>
       <c r="L113">
-        <v>1.0118347314702754</v>
+        <v>1.0053050770151024</v>
       </c>
     </row>
     <row r="114">
@@ -2096,174 +2096,174 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.00096708661871066238</v>
+        <v>0.0011558481959187284</v>
       </c>
       <c r="H114">
-        <v>0.0082111207921269514</v>
+        <v>0.0080937876477413361</v>
       </c>
       <c r="I114">
-        <v>0.14899527953233099</v>
+        <v>0.15513642039230227</v>
       </c>
       <c r="J114">
-        <v>0.0742675772983305</v>
+        <v>0.081554460521100047</v>
       </c>
       <c r="K114">
-        <v>0.14140232298040836</v>
+        <v>0.17080359406293055</v>
       </c>
       <c r="L114">
-        <v>0.31181511159844472</v>
+        <v>0.31479908050436001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.96829371407220599</v>
+        <v>0.98939517848423886</v>
       </c>
       <c r="B115">
-        <v>0.95777290043558549</v>
+        <v>0.98918952025015305</v>
       </c>
       <c r="C115">
-        <v>0.95842989373254628</v>
+        <v>0.99037536184338015</v>
       </c>
       <c r="D115">
-        <v>0.94564013329778152</v>
+        <v>0.99075844159921678</v>
       </c>
       <c r="E115">
-        <v>0.93974114963543331</v>
+        <v>0.99166446215670356</v>
       </c>
       <c r="F115">
-        <v>0.97048759142671226</v>
+        <v>0.98825240066977471</v>
       </c>
       <c r="G115">
-        <v>0.0080983858868777254</v>
+        <v>0.0026268635755511763</v>
       </c>
       <c r="H115">
-        <v>0.0062813044636600285</v>
+        <v>0.0016152716416187171</v>
       </c>
       <c r="I115">
-        <v>-0.0063211266756168505</v>
+        <v>-0.0015326595469939783</v>
       </c>
       <c r="J115">
-        <v>-0.0025438667022184211</v>
+        <v>-0.00054500667664511993</v>
       </c>
       <c r="K115">
-        <v>-0.008606072586788853</v>
+        <v>-0.001478294824877064</v>
       </c>
       <c r="L115">
-        <v>-0.009428687643054991</v>
+        <v>-0.0037833888039095096</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.99190161411312239</v>
+        <v>0.9973731364244488</v>
       </c>
       <c r="B116">
-        <v>0.99371869553633996</v>
+        <v>0.99838472835838132</v>
       </c>
       <c r="C116">
-        <v>1.0063211266756167</v>
+        <v>1.0015326595469938</v>
       </c>
       <c r="D116">
-        <v>1.0025438667022184</v>
+        <v>1.000545006676645</v>
       </c>
       <c r="E116">
-        <v>1.0086060725867889</v>
+        <v>1.0014782948248773</v>
       </c>
       <c r="F116">
-        <v>1.0094286876430547</v>
+        <v>1.0037833888039096</v>
       </c>
       <c r="G116">
-        <v>0.031706285927794092</v>
+        <v>0.010604821515761019</v>
       </c>
       <c r="H116">
-        <v>0.042227099564414429</v>
+        <v>0.01081047974984696</v>
       </c>
       <c r="I116">
-        <v>0.04157010626745359</v>
+        <v>0.0096246381566196474</v>
       </c>
       <c r="J116">
-        <v>0.054359866702218415</v>
+        <v>0.0092415584007830495</v>
       </c>
       <c r="K116">
-        <v>0.060258850364566637</v>
+        <v>0.0083355378432965529</v>
       </c>
       <c r="L116">
-        <v>0.029512408573287553</v>
+        <v>0.011747599330225299</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="G117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="H117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="I117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="J117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="K117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="L117">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="G118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="H118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="I118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="J118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="K118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="L118">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="119">
@@ -2306,116 +2306,116 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.84857334148434149</v>
+        <v>0.9521787409172815</v>
       </c>
       <c r="B121">
-        <v>0.86000196041675747</v>
+        <v>0.96405180784087108</v>
       </c>
       <c r="C121">
-        <v>0.84389385560675867</v>
+        <v>0.9696018152109328</v>
       </c>
       <c r="D121">
-        <v>0.91072846153846165</v>
+        <v>0.98337211942115021</v>
       </c>
       <c r="E121">
-        <v>0.86346527777777771</v>
+        <v>0.98065899177533855</v>
       </c>
       <c r="F121">
-        <v>0.90519858378056051</v>
+        <v>0.96628775421354374</v>
       </c>
       <c r="G121">
-        <v>0.15142665851565851</v>
+        <v>0.047821259082718545</v>
       </c>
       <c r="H121">
-        <v>0.1399980395832425</v>
+        <v>0.035948192159128929</v>
       </c>
       <c r="I121">
-        <v>0.15610614439324116</v>
+        <v>0.03039818478906714</v>
       </c>
       <c r="J121">
-        <v>0.089271538461538458</v>
+        <v>0.016627880578849785</v>
       </c>
       <c r="K121">
-        <v>0.13653472222222224</v>
+        <v>0.019341008224661477</v>
       </c>
       <c r="L121">
-        <v>0.09480141621943948</v>
+        <v>0.033712245786456319</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.014952443108188536</v>
+        <v>0.0050967642802774247</v>
       </c>
       <c r="B122">
-        <v>0.020428502578829399</v>
+        <v>0.0055068194917950557</v>
       </c>
       <c r="C122">
-        <v>0.040554728012760229</v>
+        <v>0.0084050540545844987</v>
       </c>
       <c r="D122">
-        <v>0.028725496150959665</v>
+        <v>0.0057475928746936198</v>
       </c>
       <c r="E122">
-        <v>0.035753964114551291</v>
+        <v>0.0055305821801789699</v>
       </c>
       <c r="F122">
-        <v>0.03406771424486775</v>
+        <v>0.011863639421239575</v>
       </c>
       <c r="G122">
-        <v>0.014952443108188536</v>
+        <v>0.0050967642802774247</v>
       </c>
       <c r="H122">
-        <v>0.020428502578829399</v>
+        <v>0.0055068194917950557</v>
       </c>
       <c r="I122">
-        <v>0.040554728012760229</v>
+        <v>0.0084050540545844987</v>
       </c>
       <c r="J122">
-        <v>0.028725496150959665</v>
+        <v>0.0057475928746936198</v>
       </c>
       <c r="K122">
-        <v>0.035753964114551291</v>
+        <v>0.0055305821801789699</v>
       </c>
       <c r="L122">
-        <v>0.03406771424486775</v>
+        <v>0.011863639421239575</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>56.751484379140017</v>
+        <v>186.82024291408919</v>
       </c>
       <c r="B123">
-        <v>42.098139944334463</v>
+        <v>175.06508235421015</v>
       </c>
       <c r="C123">
-        <v>20.808766251403142</v>
+        <v>115.35937888252698</v>
       </c>
       <c r="D123">
-        <v>31.704533726845163</v>
+        <v>171.09286284887909</v>
       </c>
       <c r="E123">
-        <v>24.150197024624777</v>
+        <v>177.31568934820609</v>
       </c>
       <c r="F123">
-        <v>26.570569932408286</v>
+        <v>81.449521508854232</v>
       </c>
       <c r="G123">
-        <v>10.127218503358252</v>
+        <v>9.3826703478850231</v>
       </c>
       <c r="H123">
-        <v>6.8530739853799272</v>
+        <v>6.5279408945018664</v>
       </c>
       <c r="I123">
-        <v>3.8492711464893459</v>
+        <v>3.6166554779605002</v>
       </c>
       <c r="J123">
-        <v>3.1077457458835247</v>
+        <v>2.8930164229379502</v>
       </c>
       <c r="K123">
-        <v>3.8187296319026842</v>
+        <v>3.4971016783689852</v>
       </c>
       <c r="L123">
-        <v>2.7827348655691266</v>
+        <v>2.8416445063309155</v>
       </c>
     </row>
     <row r="124">
@@ -2423,189 +2423,189 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>5.4863564887283424e-241</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>1.087479669681885e-82</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>6.3455628927524394e-162</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>7.2215691733939627e-106</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>2.0179943396749311e-123</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>3.2708130212341602e-23</v>
+        <v>9.5514738244333506e-21</v>
       </c>
       <c r="H124">
-        <v>1.1376766652266998e-11</v>
+        <v>7.3352964162606069e-11</v>
       </c>
       <c r="I124">
-        <v>0.00012452921187751896</v>
+        <v>0.00030140583460646882</v>
       </c>
       <c r="J124">
-        <v>0.0019282044281173187</v>
+        <v>0.0038322527297976372</v>
       </c>
       <c r="K124">
-        <v>0.00014079461381961761</v>
+        <v>0.00047447136714372343</v>
       </c>
       <c r="L124">
-        <v>0.005472332627835386</v>
+        <v>0.0045064910311595398</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.81923836555538654</v>
+        <v>0.94218682477628246</v>
       </c>
       <c r="B125">
-        <v>0.81992358479087923</v>
+        <v>0.95325600180790304</v>
       </c>
       <c r="C125">
-        <v>0.76433013739350386</v>
+        <v>0.9531241853548782</v>
       </c>
       <c r="D125">
-        <v>0.85437233752323527</v>
+        <v>0.97210429088162509</v>
       </c>
       <c r="E125">
-        <v>0.79332010691331234</v>
+        <v>0.969816600344938</v>
       </c>
       <c r="F125">
-        <v>0.83836164147643533</v>
+        <v>0.94302976469207755</v>
       </c>
       <c r="G125">
-        <v>0.12209168258670354</v>
+        <v>0.037829342941719558</v>
       </c>
       <c r="H125">
-        <v>0.099919663957364235</v>
+        <v>0.025152386126160924</v>
       </c>
       <c r="I125">
-        <v>0.076542426179986314</v>
+        <v>0.013920554933012558</v>
       </c>
       <c r="J125">
-        <v>0.032915414446312054</v>
+        <v>0.005360052039324709</v>
       </c>
       <c r="K125">
-        <v>0.066389551357756899</v>
+        <v>0.0084986167942609197</v>
       </c>
       <c r="L125">
-        <v>0.027964473915314259</v>
+        <v>0.010454256264990115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.87790831741329645</v>
+        <v>0.96217065705828053</v>
       </c>
       <c r="B126">
-        <v>0.90008033604263571</v>
+        <v>0.97484761387383911</v>
       </c>
       <c r="C126">
-        <v>0.92345757382001348</v>
+        <v>0.98607944506698741</v>
       </c>
       <c r="D126">
-        <v>0.96708458555368804</v>
+        <v>0.99463994796067534</v>
       </c>
       <c r="E126">
-        <v>0.93361044864224307</v>
+        <v>0.99150138320573911</v>
       </c>
       <c r="F126">
-        <v>0.97203552608468569</v>
+        <v>0.98954574373500992</v>
       </c>
       <c r="G126">
-        <v>0.18076163444461349</v>
+        <v>0.057813175223717532</v>
       </c>
       <c r="H126">
-        <v>0.18007641520912077</v>
+        <v>0.046743998192096931</v>
       </c>
       <c r="I126">
-        <v>0.23566986260649603</v>
+        <v>0.046875814645121722</v>
       </c>
       <c r="J126">
-        <v>0.14562766247676487</v>
+        <v>0.027895709118374863</v>
       </c>
       <c r="K126">
-        <v>0.20667989308668758</v>
+        <v>0.030183399655062032</v>
       </c>
       <c r="L126">
-        <v>0.1616383585235647</v>
+        <v>0.056970235307922522</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="G127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="H127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="I127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="J127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="K127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="L127">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="G128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="H128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="I128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="J128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="K128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="L128">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="129">
@@ -2648,162 +2648,162 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.61729223581757497</v>
+        <v>0.918130488118029</v>
       </c>
       <c r="B131">
-        <v>0.73962302801577584</v>
+        <v>0.92592955899727836</v>
       </c>
       <c r="C131">
-        <v>0.8050251617407792</v>
+        <v>0.96057752114445127</v>
       </c>
       <c r="D131">
-        <v>0.38270776418242491</v>
+        <v>0.081869511881970974</v>
       </c>
       <c r="E131">
-        <v>0.26037697198422416</v>
+        <v>0.074070441002721726</v>
       </c>
       <c r="F131">
-        <v>0.19497483825922085</v>
+        <v>0.039422478855548643</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.032861025061067806</v>
+        <v>0.0084326209846952369</v>
       </c>
       <c r="B132">
-        <v>0.015753400003781698</v>
+        <v>0.0049516530438924473</v>
       </c>
       <c r="C132">
-        <v>0.025476620258618972</v>
+        <v>0.0055843849317528515</v>
       </c>
       <c r="D132">
-        <v>0.032861025061067806</v>
+        <v>0.0084326209846952369</v>
       </c>
       <c r="E132">
-        <v>0.015753400003781698</v>
+        <v>0.0049516530438924473</v>
       </c>
       <c r="F132">
-        <v>0.025476620258618972</v>
+        <v>0.0055843849317528515</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>18.784935487265543</v>
+        <v>108.87842460658288</v>
       </c>
       <c r="B133">
-        <v>46.950056993298269</v>
+        <v>186.99403023387396</v>
       </c>
       <c r="C133">
-        <v>31.598585431222254</v>
+        <v>172.01133748545894</v>
       </c>
       <c r="D133">
-        <v>11.64625155396747</v>
+        <v>9.7086673325600454</v>
       </c>
       <c r="E133">
-        <v>16.528303218461989</v>
+        <v>14.958730013219112</v>
       </c>
       <c r="F133">
-        <v>7.6530888430249728</v>
+        <v>7.0594128695162386</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.8857768640447218e-69</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>5.037161564736938e-277</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>4.0519200510465611e-161</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>8.1111413779891105e-30</v>
+        <v>4.3528259693806218e-22</v>
       </c>
       <c r="E134">
-        <v>1.3489310220175642e-55</v>
+        <v>1.6242422809898682e-49</v>
       </c>
       <c r="F134">
-        <v>3.934015525063215e-14</v>
+        <v>1.9032248344541449e-12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.55282267909080174</v>
+        <v>0.90159881486526539</v>
       </c>
       <c r="B135">
-        <v>0.70871666665620259</v>
+        <v>0.9162221251719882</v>
       </c>
       <c r="C135">
-        <v>0.75504295905789909</v>
+        <v>0.94962965248333764</v>
       </c>
       <c r="D135">
-        <v>0.31823820745565168</v>
+        <v>0.06533783862920739</v>
       </c>
       <c r="E135">
-        <v>0.22947061062465093</v>
+        <v>0.064363007177431569</v>
       </c>
       <c r="F135">
-        <v>0.14499263557634068</v>
+        <v>0.028474610194434962</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.68176179254434821</v>
+        <v>0.93466216137079261</v>
       </c>
       <c r="B136">
-        <v>0.77052938937534909</v>
+        <v>0.93563699282256851</v>
       </c>
       <c r="C136">
-        <v>0.85500736442365932</v>
+        <v>0.97152538980556491</v>
       </c>
       <c r="D136">
-        <v>0.44717732090919815</v>
+        <v>0.098401185134734559</v>
       </c>
       <c r="E136">
-        <v>0.29128333334379741</v>
+        <v>0.083777874828011883</v>
       </c>
       <c r="F136">
-        <v>0.24495704094210102</v>
+        <v>0.05037034751666232</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B137">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C137">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D137">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E137">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F137">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B138">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C138">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D138">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E138">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F138">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="139">
@@ -2828,162 +2828,162 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.54495633481646266</v>
+        <v>0.90226249164181449</v>
       </c>
       <c r="B141">
-        <v>0.42767800217598262</v>
+        <v>0.83799371018494173</v>
       </c>
       <c r="C141">
-        <v>0.33824727378710429</v>
+        <v>0.86433244268751042</v>
       </c>
       <c r="D141">
-        <v>0.45504366518353728</v>
+        <v>0.097737508358185426</v>
       </c>
       <c r="E141">
-        <v>0.57232199782401749</v>
+        <v>0.1620062898150581</v>
       </c>
       <c r="F141">
-        <v>0.66175272621289571</v>
+        <v>0.13566755731248958</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.032995731388176103</v>
+        <v>0.0088341350469958047</v>
       </c>
       <c r="B142">
-        <v>0.017706711573801815</v>
+        <v>0.0067121703647310734</v>
       </c>
       <c r="C142">
-        <v>0.030384463961030169</v>
+        <v>0.0094834553992637627</v>
       </c>
       <c r="D142">
-        <v>0.032995731388176103</v>
+        <v>0.0088341350469958047</v>
       </c>
       <c r="E142">
-        <v>0.017706711573801815</v>
+        <v>0.0067121703647310734</v>
       </c>
       <c r="F142">
-        <v>0.030384463961030169</v>
+        <v>0.0094834553992637627</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>16.515964698747236</v>
+        <v>102.13365392785612</v>
       </c>
       <c r="B143">
-        <v>24.153440371658785</v>
+        <v>124.84690713277453</v>
       </c>
       <c r="C143">
-        <v>11.132244235768844</v>
+        <v>91.14108795773025</v>
       </c>
       <c r="D143">
-        <v>13.790985865117101</v>
+        <v>11.063619453205291</v>
       </c>
       <c r="E143">
-        <v>32.322320010611321</v>
+        <v>24.13620051515915</v>
       </c>
       <c r="F143">
-        <v>21.779312186044546</v>
+        <v>14.305709427707329</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.5950397835253466e-55</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>6.8466800032829771e-106</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>1.6880523011176011e-27</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>2.3802486369201211e-40</v>
+        <v>4.0118387297561372e-28</v>
       </c>
       <c r="E144">
-        <v>1.2655578560976595e-166</v>
+        <v>8.8145481949625725e-122</v>
       </c>
       <c r="F144">
-        <v>2.8581463218850421e-89</v>
+        <v>1.6098161297715547e-45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.48022249974837705</v>
+        <v>0.8849436729337542</v>
       </c>
       <c r="B145">
-        <v>0.39293946787492467</v>
+        <v>0.82483488240316316</v>
       </c>
       <c r="C145">
-        <v>0.27863644547885985</v>
+        <v>0.84574066840377016</v>
       </c>
       <c r="D145">
-        <v>0.39030983011545167</v>
+        <v>0.080418689650125108</v>
       </c>
       <c r="E145">
-        <v>0.5375834635229596</v>
+        <v>0.14884746203327948</v>
       </c>
       <c r="F145">
-        <v>0.60214189790465122</v>
+        <v>0.11707578302874935</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.60969016988454827</v>
+        <v>0.91958131034987478</v>
       </c>
       <c r="B146">
-        <v>0.46241653647704056</v>
+        <v>0.8511525379667203</v>
       </c>
       <c r="C146">
-        <v>0.39785810209534872</v>
+        <v>0.88292421697125067</v>
       </c>
       <c r="D146">
-        <v>0.51977750025162295</v>
+        <v>0.11505632706624574</v>
       </c>
       <c r="E146">
-        <v>0.60706053212507538</v>
+        <v>0.17516511759683673</v>
       </c>
       <c r="F146">
-        <v>0.7213635545211402</v>
+        <v>0.15425933159622982</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B147">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C147">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D147">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E147">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F147">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B148">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C148">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D148">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E148">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F148">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="149">
@@ -3008,62 +3008,62 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.96476167037449012</v>
+        <v>0.99235611628492326</v>
       </c>
       <c r="B151">
-        <v>0.98227658098735215</v>
+        <v>0.99490864442854876</v>
       </c>
       <c r="C151">
-        <v>0.98342199866764035</v>
+        <v>0.99671595211447106</v>
       </c>
       <c r="D151">
-        <v>0.035238329625509823</v>
+        <v>0.0076438837150767684</v>
       </c>
       <c r="E151">
-        <v>0.017723419012647901</v>
+        <v>0.0050913555714512098</v>
       </c>
       <c r="F151">
-        <v>0.016578001332359687</v>
+        <v>0.0032840478855289497</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.012203806457141135</v>
+        <v>0.0026911598497836998</v>
       </c>
       <c r="B152">
-        <v>0.004688714582469453</v>
+        <v>0.0013571467720962023</v>
       </c>
       <c r="C152">
-        <v>0.0082171599114516467</v>
+        <v>0.0016406448315155768</v>
       </c>
       <c r="D152">
-        <v>0.012203806457141135</v>
+        <v>0.0026911598497836998</v>
       </c>
       <c r="E152">
-        <v>0.004688714582469453</v>
+        <v>0.0013571467720962023</v>
       </c>
       <c r="F152">
-        <v>0.0082171599114516467</v>
+        <v>0.0016406448315155768</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>79.054160172292285</v>
+        <v>368.7466266133107</v>
       </c>
       <c r="B153">
-        <v>209.49805404235261</v>
+        <v>733.08846536314343</v>
       </c>
       <c r="C153">
-        <v>119.67906299317822</v>
+        <v>607.51476064062922</v>
       </c>
       <c r="D153">
-        <v>2.8874867648273699</v>
+        <v>2.8403677751402023</v>
       </c>
       <c r="E153">
-        <v>3.7800166124237249</v>
+        <v>3.7515143359087659</v>
       </c>
       <c r="F153">
-        <v>2.0174855437894248</v>
+        <v>2.0016811819626117</v>
       </c>
     </row>
     <row r="154">
@@ -3077,93 +3077,93 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.003950940760831031</v>
+        <v>0.0045245389352219856</v>
       </c>
       <c r="E154">
-        <v>0.00016429830121834124</v>
+        <v>0.0001777788616439786</v>
       </c>
       <c r="F154">
-        <v>0.043860661315725524</v>
+        <v>0.045373475886460339</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.94081920384433448</v>
+        <v>0.98708025064500815</v>
       </c>
       <c r="B155">
-        <v>0.97307786152597142</v>
+        <v>0.99224803546331042</v>
       </c>
       <c r="C155">
-        <v>0.96730087475078697</v>
+        <v>0.99349956134727346</v>
       </c>
       <c r="D155">
-        <v>0.011295863095354179</v>
+        <v>0.0023680180751616924</v>
       </c>
       <c r="E155">
-        <v>0.0085246995512672039</v>
+        <v>0.0024307466062128569</v>
       </c>
       <c r="F155">
-        <v>0.0004568774155062974</v>
+        <v>6.7657118331305305e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.98870413690464576</v>
+        <v>0.99763198192483837</v>
       </c>
       <c r="B156">
-        <v>0.99147530044873289</v>
+        <v>0.9975692533937871</v>
       </c>
       <c r="C156">
-        <v>0.99954312258449374</v>
+        <v>0.99993234288166866</v>
       </c>
       <c r="D156">
-        <v>0.059180796155665467</v>
+        <v>0.012919749354991844</v>
       </c>
       <c r="E156">
-        <v>0.026922138474028599</v>
+        <v>0.0077519645366895627</v>
       </c>
       <c r="F156">
-        <v>0.032699125249213076</v>
+        <v>0.006500438652726594</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B157">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C157">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D157">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E157">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F157">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B158">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C158">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D158">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E158">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F158">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="159">
@@ -3188,162 +3188,162 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.87298975899147191</v>
+        <v>0.97308388236759735</v>
       </c>
       <c r="B161">
-        <v>0.8504223888208895</v>
+        <v>0.95754772768767649</v>
       </c>
       <c r="C161">
-        <v>0.87330556580447616</v>
+        <v>0.97395329782307649</v>
       </c>
       <c r="D161">
-        <v>0.12701024100852801</v>
+        <v>0.026916117632402554</v>
       </c>
       <c r="E161">
-        <v>0.14957761117911056</v>
+        <v>0.042452272312323437</v>
       </c>
       <c r="F161">
-        <v>0.12669443419552379</v>
+        <v>0.026046702176923564</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.022782395998929901</v>
+        <v>0.0051271855137970642</v>
       </c>
       <c r="B162">
-        <v>0.012798924309473133</v>
+        <v>0.0038334942719466208</v>
       </c>
       <c r="C162">
-        <v>0.021270974667079126</v>
+        <v>0.004592730037980333</v>
       </c>
       <c r="D162">
-        <v>0.022782395998929901</v>
+        <v>0.0051271855137970642</v>
       </c>
       <c r="E162">
-        <v>0.012798924309473133</v>
+        <v>0.0038334942719466208</v>
       </c>
       <c r="F162">
-        <v>0.021270974667079126</v>
+        <v>0.004592730037980333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>38.31861051982753</v>
+        <v>189.78909184172585</v>
       </c>
       <c r="B163">
-        <v>66.444833038933496</v>
+        <v>249.78457244477389</v>
       </c>
       <c r="C163">
-        <v>41.056208259045242</v>
+        <v>212.06412956320321</v>
       </c>
       <c r="D163">
-        <v>5.5749290379507812</v>
+        <v>5.2496867062781893</v>
       </c>
       <c r="E163">
-        <v>11.686733006804376</v>
+        <v>11.074040888227669</v>
       </c>
       <c r="F163">
-        <v>5.9562119826886679</v>
+        <v>5.671289616747794</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.207200927577356e-212</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>3.8670905651177263e-233</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>3.0379695576365915e-08</v>
+        <v>1.5872344140401552e-07</v>
       </c>
       <c r="E164">
-        <v>5.284263219721913e-30</v>
+        <v>3.5814834895729246e-28</v>
       </c>
       <c r="F164">
-        <v>3.3607291310565792e-09</v>
+        <v>1.4976780963356037e-08</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.82829331484539581</v>
+        <v>0.96303232713059184</v>
       </c>
       <c r="B165">
-        <v>0.82531236942016051</v>
+        <v>0.95003238046227845</v>
       </c>
       <c r="C165">
-        <v>0.83157435670845492</v>
+        <v>0.96494951211234148</v>
       </c>
       <c r="D165">
-        <v>0.082313796862451952</v>
+        <v>0.016864562395397062</v>
       </c>
       <c r="E165">
-        <v>0.12446759177838154</v>
+        <v>0.034936925086925433</v>
       </c>
       <c r="F165">
-        <v>0.084963225099502576</v>
+        <v>0.017042916466188537</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.91768620313754801</v>
+        <v>0.98313543760460287</v>
       </c>
       <c r="B166">
-        <v>0.87553240822161849</v>
+        <v>0.96506307491307453</v>
       </c>
       <c r="C166">
-        <v>0.9150367749004974</v>
+        <v>0.9829570835338115</v>
       </c>
       <c r="D166">
-        <v>0.17170668515460408</v>
+        <v>0.036967672869408046</v>
       </c>
       <c r="E166">
-        <v>0.17468763057983958</v>
+        <v>0.049967619537721442</v>
       </c>
       <c r="F166">
-        <v>0.168425643291545</v>
+        <v>0.035050487887658591</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B167">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C167">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D167">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E167">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F167">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B168">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C168">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D168">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E168">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F168">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="169">
@@ -3368,306 +3368,306 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.56004404761904758</v>
+        <v>0.92974077026039093</v>
       </c>
       <c r="B171">
-        <v>0.67745854939708572</v>
+        <v>0.93766954220770449</v>
       </c>
       <c r="C171">
-        <v>0.72157405988670054</v>
+        <v>0.94027303135995077</v>
       </c>
       <c r="D171">
-        <v>0.73896122477543069</v>
+        <v>0.92663435879962042</v>
       </c>
       <c r="E171">
-        <v>0.75857364035791008</v>
+        <v>0.92672739398406567</v>
       </c>
       <c r="F171">
-        <v>0.78155676953655395</v>
+        <v>0.91204983818875807</v>
       </c>
       <c r="G171">
-        <v>0.43995595238095236</v>
+        <v>0.070259229739609047</v>
       </c>
       <c r="H171">
-        <v>0.32254145060291428</v>
+        <v>0.062330457792295547</v>
       </c>
       <c r="I171">
-        <v>0.27842594011329952</v>
+        <v>0.059726968640049297</v>
       </c>
       <c r="J171">
-        <v>0.2610387752245692</v>
+        <v>0.073365641200379611</v>
       </c>
       <c r="K171">
-        <v>0.24142635964208994</v>
+        <v>0.073272606015934327</v>
       </c>
       <c r="L171">
-        <v>0.21844323046344605</v>
+        <v>0.087950161811241961</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.17256541924249677</v>
+        <v>0.034432674103160379</v>
       </c>
       <c r="B172">
-        <v>0.032061280017513953</v>
+        <v>0.0069552373771044063</v>
       </c>
       <c r="C172">
-        <v>0.023660663847746306</v>
+        <v>0.0057675230707172247</v>
       </c>
       <c r="D172">
-        <v>0.026063104304547009</v>
+        <v>0.0079345900408524326</v>
       </c>
       <c r="E172">
-        <v>0.034712886999372992</v>
+        <v>0.011761775156839602</v>
       </c>
       <c r="F172">
-        <v>0.03700665672205862</v>
+        <v>0.014666439399678498</v>
       </c>
       <c r="G172">
-        <v>0.17256541924249677</v>
+        <v>0.034432674103160366</v>
       </c>
       <c r="H172">
-        <v>0.032061280017513946</v>
+        <v>0.0069552373771044028</v>
       </c>
       <c r="I172">
-        <v>0.023660663847746313</v>
+        <v>0.0057675230707172282</v>
       </c>
       <c r="J172">
-        <v>0.026063104304547013</v>
+        <v>0.0079345900408524378</v>
       </c>
       <c r="K172">
-        <v>0.034712886999372985</v>
+        <v>0.011761775156839595</v>
       </c>
       <c r="L172">
-        <v>0.037006656722058613</v>
+        <v>0.0146664393996785</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>3.245401367652045</v>
+        <v>27.001700985374683</v>
       </c>
       <c r="B173">
-        <v>21.13011548593861</v>
+        <v>134.81488716609033</v>
       </c>
       <c r="C173">
-        <v>30.496779994422301</v>
+        <v>163.02891550341425</v>
       </c>
       <c r="D173">
-        <v>28.352770880271173</v>
+        <v>116.7841506654665</v>
       </c>
       <c r="E173">
-        <v>21.852796063076283</v>
+        <v>78.791456359813466</v>
       </c>
       <c r="F173">
-        <v>21.119356320310072</v>
+        <v>62.186179844628889</v>
       </c>
       <c r="G173">
-        <v>2.5495024108086586</v>
+        <v>2.0404813616599236</v>
       </c>
       <c r="H173">
-        <v>10.060155128763457</v>
+        <v>8.9616578720200195</v>
       </c>
       <c r="I173">
-        <v>11.767461044412737</v>
+        <v>10.355739874417505</v>
       </c>
       <c r="J173">
-        <v>10.015644037422968</v>
+        <v>9.2463052057693602</v>
       </c>
       <c r="K173">
-        <v>6.9549490264653242</v>
+        <v>6.2297234081477519</v>
       </c>
       <c r="L173">
-        <v>5.9028091109143146</v>
+        <v>5.9966948633197159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.0012314288111608667</v>
+        <v>6.4194461902810548e-94</v>
       </c>
       <c r="B174">
-        <v>4.5497269210209708e-79</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>2.8682492851185932e-143</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>1.0509363100651928e-118</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>4.6444842976499409e-85</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>7.54441314165788e-65</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.011010135883292284</v>
+        <v>0.041925660032498639</v>
       </c>
       <c r="H174">
-        <v>1.694621843560672e-22</v>
+        <v>4.6400690292006341e-19</v>
       </c>
       <c r="I174">
-        <v>5.9408124043650671e-30</v>
+        <v>8.6275715732145226e-25</v>
       </c>
       <c r="J174">
-        <v>3.5971987002185128e-22</v>
+        <v>4.5848493533630132e-20</v>
       </c>
       <c r="K174">
-        <v>6.8355043472212889e-12</v>
+        <v>6.5491401720521953e-10</v>
       </c>
       <c r="L174">
-        <v>8.305676270532112e-09</v>
+        <v>2.3254582540664156e-09</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.22120767656527052</v>
+        <v>0.86205944032237025</v>
       </c>
       <c r="B175">
-        <v>0.61452422657396866</v>
+        <v>0.92403376589734487</v>
       </c>
       <c r="C175">
-        <v>0.67514130234793912</v>
+        <v>0.92896516149545572</v>
       </c>
       <c r="D175">
-        <v>0.68779088938253974</v>
+        <v>0.91107586098580606</v>
       </c>
       <c r="E175">
-        <v>0.69044481730560259</v>
+        <v>0.90365037956369976</v>
       </c>
       <c r="F175">
-        <v>0.70877871296043471</v>
+        <v>0.88328930764670088</v>
       </c>
       <c r="G175">
-        <v>0.1011195813271753</v>
+        <v>0.0025778998015884291</v>
       </c>
       <c r="H175">
-        <v>0.25960712777979728</v>
+        <v>0.048694681481935911</v>
       </c>
       <c r="I175">
-        <v>0.23199318257453794</v>
+        <v>0.048419098775554233</v>
       </c>
       <c r="J175">
-        <v>0.20986843983167822</v>
+        <v>0.057807143386565278</v>
       </c>
       <c r="K175">
-        <v>0.17329753658978247</v>
+        <v>0.050195591595568426</v>
       </c>
       <c r="L175">
-        <v>0.14566517388732678</v>
+        <v>0.059189631269184736</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.89888041867282464</v>
+        <v>0.9974221001984116</v>
       </c>
       <c r="B176">
-        <v>0.74039287222020278</v>
+        <v>0.9513053185180641</v>
       </c>
       <c r="C176">
-        <v>0.76800681742546195</v>
+        <v>0.95158090122444583</v>
       </c>
       <c r="D176">
-        <v>0.79013156016832164</v>
+        <v>0.94219285661343477</v>
       </c>
       <c r="E176">
-        <v>0.82670246341021758</v>
+        <v>0.94980440840443159</v>
       </c>
       <c r="F176">
-        <v>0.8543348261126732</v>
+        <v>0.94081036873081525</v>
       </c>
       <c r="G176">
-        <v>0.77879232343472937</v>
+        <v>0.13794055967762966</v>
       </c>
       <c r="H176">
-        <v>0.38547577342603129</v>
+        <v>0.075966234102655184</v>
       </c>
       <c r="I176">
-        <v>0.3248586976520611</v>
+        <v>0.071034838504544368</v>
       </c>
       <c r="J176">
-        <v>0.31220911061746015</v>
+        <v>0.088924139014193951</v>
       </c>
       <c r="K176">
-        <v>0.30955518269439741</v>
+        <v>0.096349620436300229</v>
       </c>
       <c r="L176">
-        <v>0.29122128703956529</v>
+        <v>0.11671069235329919</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>667.52347080022025</v>
+        <v>421.09410926971213</v>
       </c>
       <c r="B177">
-        <v>798.70531747279813</v>
+        <v>4387.6052404325737</v>
       </c>
       <c r="C177">
-        <v>957.25997440966</v>
+        <v>3666.9956399714379</v>
       </c>
       <c r="D177">
-        <v>707.08054315890433</v>
+        <v>2695.1535703186746</v>
       </c>
       <c r="E177">
-        <v>888.42335621930044</v>
+        <v>1146.6570008535325</v>
       </c>
       <c r="F177">
-        <v>357.56230162138087</v>
+        <v>2346.1052217258502</v>
       </c>
       <c r="G177">
-        <v>667.52347080022014</v>
+        <v>421.09410926971543</v>
       </c>
       <c r="H177">
-        <v>798.70531747279961</v>
+        <v>4387.6052404326338</v>
       </c>
       <c r="I177">
-        <v>957.2599744096575</v>
+        <v>3666.9956399713224</v>
       </c>
       <c r="J177">
-        <v>707.08054315890195</v>
+        <v>2695.1535703186169</v>
       </c>
       <c r="K177">
-        <v>888.42335621930488</v>
+        <v>1146.6570008535505</v>
       </c>
       <c r="L177">
-        <v>357.56230162138263</v>
+        <v>2346.105221725838</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9635241668994459</v>
+        <v>1.9656135255498079</v>
       </c>
       <c r="B178">
-        <v>1.9629385598060403</v>
+        <v>1.9605048068160214</v>
       </c>
       <c r="C178">
-        <v>1.9624452567159998</v>
+        <v>1.9606111195128451</v>
       </c>
       <c r="D178">
-        <v>1.9633246598320109</v>
+        <v>1.9608445721466456</v>
       </c>
       <c r="E178">
-        <v>1.9626377677413605</v>
+        <v>1.9620349915417641</v>
       </c>
       <c r="F178">
-        <v>1.9666206845629031</v>
+        <v>1.960975650483217</v>
       </c>
       <c r="G178">
-        <v>1.9635241668994459</v>
+        <v>1.9656135255498079</v>
       </c>
       <c r="H178">
-        <v>1.9629385598060403</v>
+        <v>1.9605048068160214</v>
       </c>
       <c r="I178">
-        <v>1.9624452567160033</v>
+        <v>1.9606111195128451</v>
       </c>
       <c r="J178">
-        <v>1.9633246598320109</v>
+        <v>1.9608445721466456</v>
       </c>
       <c r="K178">
-        <v>1.9626377677413605</v>
+        <v>1.9620349915417641</v>
       </c>
       <c r="L178">
-        <v>1.9666206845629031</v>
+        <v>1.960975650483217</v>
       </c>
     </row>
     <row r="179">
@@ -3710,306 +3710,306 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.58883619047619051</v>
+        <v>0.93890308530042077</v>
       </c>
       <c r="B181">
-        <v>0.43291178335998426</v>
+        <v>0.88903125811672545</v>
       </c>
       <c r="C181">
-        <v>0.44566359593921268</v>
+        <v>0.87646166751450383</v>
       </c>
       <c r="D181">
-        <v>0.44319381846498429</v>
+        <v>0.84524128246691776</v>
       </c>
       <c r="E181">
-        <v>0.36465412877201403</v>
+        <v>0.81516152581112489</v>
       </c>
       <c r="F181">
-        <v>0.42445903235828703</v>
+        <v>0.76850642549902659</v>
       </c>
       <c r="G181">
-        <v>0.41116380952380949</v>
+        <v>0.061096914699579244</v>
       </c>
       <c r="H181">
-        <v>0.56708821664001574</v>
+        <v>0.11096874188327455</v>
       </c>
       <c r="I181">
-        <v>0.55433640406078732</v>
+        <v>0.12353833248549617</v>
       </c>
       <c r="J181">
-        <v>0.55680618153501571</v>
+        <v>0.15475871753308221</v>
       </c>
       <c r="K181">
-        <v>0.63534587122798603</v>
+        <v>0.18483847418887511</v>
       </c>
       <c r="L181">
-        <v>0.57554096764171292</v>
+        <v>0.23149357450097335</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.1778885258667452</v>
+        <v>0.032613587730784564</v>
       </c>
       <c r="B182">
-        <v>0.03416966549535403</v>
+        <v>0.0091313422329007254</v>
       </c>
       <c r="C182">
-        <v>0.026358614617520652</v>
+        <v>0.0079290989095692644</v>
       </c>
       <c r="D182">
-        <v>0.029287154950633096</v>
+        <v>0.01066688499708552</v>
       </c>
       <c r="E182">
-        <v>0.039426195418382416</v>
+        <v>0.016541512570102588</v>
       </c>
       <c r="F182">
-        <v>0.043031460290497973</v>
+        <v>0.02109026724158208</v>
       </c>
       <c r="G182">
-        <v>0.1778885258667452</v>
+        <v>0.032613587730784564</v>
       </c>
       <c r="H182">
-        <v>0.03416966549535403</v>
+        <v>0.0091313422329007323</v>
       </c>
       <c r="I182">
-        <v>0.026358614617520655</v>
+        <v>0.0079290989095692661</v>
       </c>
       <c r="J182">
-        <v>0.029287154950633099</v>
+        <v>0.01066688499708552</v>
       </c>
       <c r="K182">
-        <v>0.039426195418382409</v>
+        <v>0.016541512570102591</v>
       </c>
       <c r="L182">
-        <v>0.043031460290497973</v>
+        <v>0.021090267241582066</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.3101414923033472</v>
+        <v>28.788708959308174</v>
       </c>
       <c r="B183">
-        <v>12.669476773743842</v>
+        <v>97.360413775041437</v>
       </c>
       <c r="C183">
-        <v>16.907701804744271</v>
+        <v>110.53736086666072</v>
       </c>
       <c r="D183">
-        <v>15.132703030118119</v>
+        <v>79.239748314326107</v>
       </c>
       <c r="E183">
-        <v>9.2490316375288515</v>
+        <v>49.279745268547067</v>
       </c>
       <c r="F183">
-        <v>9.863923499059462</v>
+        <v>36.438913584927022</v>
       </c>
       <c r="G183">
-        <v>2.3113565505164106</v>
+        <v>1.8733576693222482</v>
       </c>
       <c r="H183">
-        <v>16.596247239151971</v>
+        <v>12.152511542437651</v>
       </c>
       <c r="I183">
-        <v>21.030559158914148</v>
+        <v>15.580374755623671</v>
       </c>
       <c r="J183">
-        <v>19.011958740054375</v>
+        <v>14.508332805253497</v>
       </c>
       <c r="K183">
-        <v>16.114815657098806</v>
+        <v>11.174218403881353</v>
       </c>
       <c r="L183">
-        <v>13.374888134316963</v>
+        <v>10.976322483223692</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.0010591781719890745</v>
+        <v>2.4088475925581512e-111</v>
       </c>
       <c r="B184">
-        <v>1.5464408359313314e-33</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>9.7488120900383373e-56</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>2.8473470801024503e-45</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>2.1356617902968165e-19</v>
+        <v>1.4685449155978543e-317</v>
       </c>
       <c r="F184">
-        <v>3.315219585937218e-21</v>
+        <v>5.5782743435586576e-200</v>
       </c>
       <c r="G184">
-        <v>0.021565064992358312</v>
+        <v>0.061556144088194417</v>
       </c>
       <c r="H184">
-        <v>4.4150200851730823e-53</v>
+        <v>1.7752422845432704e-32</v>
       </c>
       <c r="I184">
-        <v>7.4935300364412108e-80</v>
+        <v>2.2017640027524086e-49</v>
       </c>
       <c r="J184">
-        <v>6.2443756280813194e-66</v>
+        <v>9.4076969993850136e-46</v>
       </c>
       <c r="K184">
-        <v>1.24544365532242e-50</v>
+        <v>6.4329683159788855e-28</v>
       </c>
       <c r="L184">
-        <v>2.01113086714784e-35</v>
+        <v>7.5104403923840186e-27</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.23861401169084184</v>
+        <v>0.87483877975922542</v>
       </c>
       <c r="B185">
-        <v>0.36583460793929345</v>
+        <v>0.87111968842968679</v>
       </c>
       <c r="C185">
-        <v>0.39393041169678078</v>
+        <v>0.86090294393626821</v>
       </c>
       <c r="D185">
-        <v>0.38569801509646867</v>
+        <v>0.82432384630024658</v>
       </c>
       <c r="E185">
-        <v>0.28725982870031175</v>
+        <v>0.78271495774880728</v>
       </c>
       <c r="F185">
-        <v>0.33992858577137358</v>
+        <v>0.72713110103327616</v>
       </c>
       <c r="G185">
-        <v>0.060941630738460817</v>
+        <v>-0.0029673908416161382</v>
       </c>
       <c r="H185">
-        <v>0.50001104121932494</v>
+        <v>0.093057172196235882</v>
       </c>
       <c r="I185">
-        <v>0.50260321981835543</v>
+        <v>0.10797960890726052</v>
       </c>
       <c r="J185">
-        <v>0.49931037816650004</v>
+        <v>0.13384128136641099</v>
       </c>
       <c r="K185">
-        <v>0.5579515711562838</v>
+        <v>0.15239190612655745</v>
       </c>
       <c r="L185">
-        <v>0.49101052105479948</v>
+        <v>0.19011825003522292</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.93905836926153918</v>
+        <v>1.0029673908416161</v>
       </c>
       <c r="B186">
-        <v>0.49998895878067506</v>
+        <v>0.90694282780376412</v>
       </c>
       <c r="C186">
-        <v>0.49739678018164457</v>
+        <v>0.89202039109273945</v>
       </c>
       <c r="D186">
-        <v>0.50068962183349996</v>
+        <v>0.86615871863358895</v>
       </c>
       <c r="E186">
-        <v>0.44204842884371631</v>
+        <v>0.84760809387344249</v>
       </c>
       <c r="F186">
-        <v>0.50898947894520052</v>
+        <v>0.80988174996477702</v>
       </c>
       <c r="G186">
-        <v>0.76138598830915816</v>
+        <v>0.12516122024077464</v>
       </c>
       <c r="H186">
-        <v>0.63416539206070655</v>
+        <v>0.12888031157031321</v>
       </c>
       <c r="I186">
-        <v>0.60606958830321922</v>
+        <v>0.13909705606373182</v>
       </c>
       <c r="J186">
-        <v>0.61430198490353138</v>
+        <v>0.17567615369975342</v>
       </c>
       <c r="K186">
-        <v>0.71274017129968825</v>
+        <v>0.21728504225119277</v>
       </c>
       <c r="L186">
-        <v>0.66007141422862636</v>
+        <v>0.27286889896672378</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>270.47997184746919</v>
+        <v>542.80106723871074</v>
       </c>
       <c r="B187">
-        <v>766.90277327498052</v>
+        <v>1498.4490173654508</v>
       </c>
       <c r="C187">
-        <v>878.81382318837723</v>
+        <v>1047.6247544867826</v>
       </c>
       <c r="D187">
-        <v>740.03632654465014</v>
+        <v>2360.4424545389161</v>
       </c>
       <c r="E187">
-        <v>778.16191222809425</v>
+        <v>1522.2054203117696</v>
       </c>
       <c r="F187">
-        <v>537.52097286081482</v>
+        <v>1278.8074356384698</v>
       </c>
       <c r="G187">
-        <v>270.4799718474689</v>
+        <v>542.80106723870915</v>
       </c>
       <c r="H187">
-        <v>766.9027732749812</v>
+        <v>1498.4490173654031</v>
       </c>
       <c r="I187">
-        <v>878.81382318837609</v>
+        <v>1047.6247544867767</v>
       </c>
       <c r="J187">
-        <v>740.03632654464809</v>
+        <v>2360.4424545389206</v>
       </c>
       <c r="K187">
-        <v>778.16191222809664</v>
+        <v>1522.2054203117582</v>
       </c>
       <c r="L187">
-        <v>537.5209728608155</v>
+        <v>1278.807435638503</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9687732925939088</v>
+        <v>1.9643440050210699</v>
       </c>
       <c r="B188">
-        <v>1.9630621034265359</v>
+        <v>1.9615483934554858</v>
       </c>
       <c r="C188">
-        <v>1.962667044270402</v>
+        <v>1.962230986860126</v>
       </c>
       <c r="D188">
-        <v>1.963174759222311</v>
+        <v>1.9609695025667218</v>
       </c>
       <c r="E188">
-        <v>1.9630172084932467</v>
+        <v>1.9615236469343271</v>
       </c>
       <c r="F188">
-        <v>1.9643871255184691</v>
+        <v>1.9618207769398894</v>
       </c>
       <c r="G188">
-        <v>1.9687732925939088</v>
+        <v>1.9643440050210699</v>
       </c>
       <c r="H188">
-        <v>1.9630621034265359</v>
+        <v>1.9615483934554858</v>
       </c>
       <c r="I188">
-        <v>1.962667044270402</v>
+        <v>1.962230986860126</v>
       </c>
       <c r="J188">
-        <v>1.963174759222311</v>
+        <v>1.9609695025667218</v>
       </c>
       <c r="K188">
-        <v>1.9630172084932467</v>
+        <v>1.9615236469343271</v>
       </c>
       <c r="L188">
-        <v>1.9643871255184691</v>
+        <v>1.9618207769398894</v>
       </c>
     </row>
     <row r="189">
@@ -4055,37 +4055,37 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>0.98790738096755126</v>
+        <v>0.99787755669641043</v>
       </c>
       <c r="C191">
-        <v>0.97068469541990476</v>
+        <v>0.99378332262990021</v>
       </c>
       <c r="D191">
-        <v>0.98322794772692301</v>
+        <v>0.99519092832674649</v>
       </c>
       <c r="E191">
-        <v>0.97448502647436419</v>
+        <v>0.99235627272352767</v>
       </c>
       <c r="F191">
-        <v>0.97660719080706415</v>
+        <v>0.99006498919311725</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.012092619032448721</v>
+        <v>0.002122443303589531</v>
       </c>
       <c r="I191">
-        <v>0.029315304580095302</v>
+        <v>0.0062166773700998313</v>
       </c>
       <c r="J191">
-        <v>0.016772052273077064</v>
+        <v>0.0048090716732534632</v>
       </c>
       <c r="K191">
-        <v>0.025514973525635802</v>
+        <v>0.0076437272764723601</v>
       </c>
       <c r="L191">
-        <v>0.02339280919293589</v>
+        <v>0.0099350108068828116</v>
       </c>
     </row>
     <row r="192">
@@ -4093,69 +4093,69 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>0.0081548746522717205</v>
+        <v>0.0014759228622771737</v>
       </c>
       <c r="C192">
-        <v>0.0091158198484601535</v>
+        <v>0.0019520728753400789</v>
       </c>
       <c r="D192">
-        <v>0.0074319217218621865</v>
+        <v>0.0021446430547356534</v>
       </c>
       <c r="E192">
-        <v>0.0126892589515106</v>
+        <v>0.0038051593906255265</v>
       </c>
       <c r="F192">
-        <v>0.012485844718213584</v>
+        <v>0.005110899108308864</v>
       </c>
       <c r="G192"/>
       <c r="H192">
-        <v>0.0081548746522717118</v>
+        <v>0.0014759228622771737</v>
       </c>
       <c r="I192">
-        <v>0.0091158198484601535</v>
+        <v>0.0019520728753400784</v>
       </c>
       <c r="J192">
-        <v>0.0074319217218621839</v>
+        <v>0.0021446430547356504</v>
       </c>
       <c r="K192">
-        <v>0.012689258951510598</v>
+        <v>0.0038051593906255256</v>
       </c>
       <c r="L192">
-        <v>0.012485844718213584</v>
+        <v>0.0051108991083088666</v>
       </c>
     </row>
     <row r="193">
       <c r="A193"/>
       <c r="B193">
-        <v>121.14317179508674</v>
+        <v>676.10413945130165</v>
       </c>
       <c r="C193">
-        <v>106.48353209655335</v>
+        <v>509.09130247341255</v>
       </c>
       <c r="D193">
-        <v>132.29794184115269</v>
+        <v>464.0356940187479</v>
       </c>
       <c r="E193">
-        <v>76.796054852230441</v>
+        <v>260.79230088713712</v>
       </c>
       <c r="F193">
-        <v>78.217150128613213</v>
+        <v>193.71640257651615</v>
       </c>
       <c r="G193"/>
       <c r="H193">
-        <v>1.4828700069693981</v>
+        <v>1.4380448720164503</v>
       </c>
       <c r="I193">
-        <v>3.2158714265340875</v>
+        <v>3.184654348018026</v>
       </c>
       <c r="J193">
-        <v>2.2567584671592269</v>
+        <v>2.2423646035802594</v>
       </c>
       <c r="K193">
-        <v>2.0107536321180017</v>
+        <v>2.008779788647912</v>
       </c>
       <c r="L193">
-        <v>1.8735463815925804</v>
+        <v>1.943887092337885</v>
       </c>
     </row>
     <row r="194">
@@ -4177,161 +4177,161 @@
       </c>
       <c r="G194"/>
       <c r="H194">
-        <v>0.13881848937625862</v>
+        <v>0.15088202492566266</v>
       </c>
       <c r="I194">
-        <v>0.0013390769958228352</v>
+        <v>0.0014623655890784195</v>
       </c>
       <c r="J194">
-        <v>0.024214116944598896</v>
+        <v>0.025016703654397742</v>
       </c>
       <c r="K194">
-        <v>0.044569874734626397</v>
+        <v>0.044614763010323029</v>
       </c>
       <c r="L194">
-        <v>0.061242263370165854</v>
+        <v>0.05197765466839082</v>
       </c>
     </row>
     <row r="195">
       <c r="A195"/>
       <c r="B195">
-        <v>0.97188042582374323</v>
+        <v>0.9949796356211964</v>
       </c>
       <c r="C195">
-        <v>0.95279797183679149</v>
+        <v>0.98995596796707075</v>
       </c>
       <c r="D195">
-        <v>0.96864598588439821</v>
+        <v>0.99098566609637495</v>
       </c>
       <c r="E195">
-        <v>0.94958998372143588</v>
+        <v>0.98489647109622513</v>
       </c>
       <c r="F195">
-        <v>0.95211002559675673</v>
+        <v>0.98004484165076078</v>
       </c>
       <c r="G195"/>
       <c r="H195">
-        <v>-0.0039343361113592674</v>
+        <v>-0.00077547777162445108</v>
       </c>
       <c r="I195">
-        <v>0.011428580996982057</v>
+        <v>0.0023893227072703713</v>
       </c>
       <c r="J195">
-        <v>0.0021900904305523008</v>
+        <v>0.00060380944288192327</v>
       </c>
       <c r="K195">
-        <v>0.00061993077270745128</v>
+        <v>0.00018392564916982351</v>
       </c>
       <c r="L195">
-        <v>-0.0011043560173715633</v>
+        <v>-8.5136735473705788e-05</v>
       </c>
     </row>
     <row r="196">
       <c r="A196"/>
       <c r="B196">
-        <v>1.0039343361113593</v>
+        <v>1.0007754777716245</v>
       </c>
       <c r="C196">
-        <v>0.98857141900301804</v>
+        <v>0.99761067729272968</v>
       </c>
       <c r="D196">
-        <v>0.99780990956944782</v>
+        <v>0.99939619055711804</v>
       </c>
       <c r="E196">
-        <v>0.9993800692272925</v>
+        <v>0.9998160743508302</v>
       </c>
       <c r="F196">
-        <v>1.0011043560173716</v>
+        <v>1.0000851367354737</v>
       </c>
       <c r="G196"/>
       <c r="H196">
-        <v>0.028119574176256712</v>
+        <v>0.0050203643788035131</v>
       </c>
       <c r="I196">
-        <v>0.047202028163208551</v>
+        <v>0.010044032032929291</v>
       </c>
       <c r="J196">
-        <v>0.031354014115601826</v>
+        <v>0.0090143339036250041</v>
       </c>
       <c r="K196">
-        <v>0.050410016278564153</v>
+        <v>0.015103528903774897</v>
       </c>
       <c r="L196">
-        <v>0.047889974403243343</v>
+        <v>0.019955158349239329</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B197">
-        <v>443.93496759003682</v>
+        <v>679.02159236278953</v>
       </c>
       <c r="C197">
-        <v>1080.0224666227671</v>
+        <v>3400.8942976900767</v>
       </c>
       <c r="D197">
-        <v>1126.8110734448396</v>
+        <v>2767.6085399544181</v>
       </c>
       <c r="E197">
-        <v>1227.2443064961751</v>
+        <v>4943.9904678492403</v>
       </c>
       <c r="F197">
-        <v>1169.1978116209505</v>
+        <v>4084.3702491929271</v>
       </c>
       <c r="G197"/>
       <c r="H197">
-        <v>443.93496759004603</v>
+        <v>679.02159236278771</v>
       </c>
       <c r="I197">
-        <v>1080.0224666227664</v>
+        <v>3400.8942976901026</v>
       </c>
       <c r="J197">
-        <v>1126.8110734448446</v>
+        <v>2767.6085399545991</v>
       </c>
       <c r="K197">
-        <v>1227.2443064961753</v>
+        <v>4943.9904678492458</v>
       </c>
       <c r="L197">
-        <v>1169.1978116209505</v>
+        <v>4084.3702491928457</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B198">
-        <v>1.9653220714242792</v>
+        <v>1.9634637752970601</v>
       </c>
       <c r="C198">
-        <v>1.9621629080498642</v>
+        <v>1.9606617719959256</v>
       </c>
       <c r="D198">
-        <v>1.9620715056281601</v>
+        <v>1.9608215087754461</v>
       </c>
       <c r="E198">
-        <v>1.9618988664396915</v>
+        <v>1.9604439292820868</v>
       </c>
       <c r="F198">
-        <v>1.9619950242191058</v>
+        <v>1.9605449706621274</v>
       </c>
       <c r="G198">
         <v>1.9599639845400538</v>
       </c>
       <c r="H198">
-        <v>1.9653220714242792</v>
+        <v>1.9634637752970601</v>
       </c>
       <c r="I198">
-        <v>1.9621629080498642</v>
+        <v>1.9606617719959256</v>
       </c>
       <c r="J198">
-        <v>1.9620715056281601</v>
+        <v>1.9608215087754461</v>
       </c>
       <c r="K198">
-        <v>1.9618988664396915</v>
+        <v>1.9604439292820868</v>
       </c>
       <c r="L198">
-        <v>1.9619950242191058</v>
+        <v>1.9605449706621307</v>
       </c>
     </row>
     <row r="199">
@@ -4374,306 +4374,306 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.85111976190476191</v>
+        <v>0.97539599012586353</v>
       </c>
       <c r="B201">
-        <v>0.90172228627537865</v>
+        <v>0.9802710841811052</v>
       </c>
       <c r="C201">
-        <v>0.86207764875418214</v>
+        <v>0.9693370782290115</v>
       </c>
       <c r="D201">
-        <v>0.83461700903266201</v>
+        <v>0.95407916088103961</v>
       </c>
       <c r="E201">
-        <v>0.90228720439571164</v>
+        <v>0.97151701179502437</v>
       </c>
       <c r="F201">
-        <v>0.81737700729809482</v>
+        <v>0.92315960717583656</v>
       </c>
       <c r="G201">
-        <v>0.14888023809523809</v>
+        <v>0.024604009874136488</v>
       </c>
       <c r="H201">
-        <v>0.098277713724621268</v>
+        <v>0.019728915818894733</v>
       </c>
       <c r="I201">
-        <v>0.13792235124581784</v>
+        <v>0.03066292177098855</v>
       </c>
       <c r="J201">
-        <v>0.16538299096733805</v>
+        <v>0.045920839118960423</v>
       </c>
       <c r="K201">
-        <v>0.097712795604288277</v>
+        <v>0.0284829882049757</v>
       </c>
       <c r="L201">
-        <v>0.1826229927019051</v>
+        <v>0.076840392824163398</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.10690246631448176</v>
+        <v>0.018631462804032321</v>
       </c>
       <c r="B202">
-        <v>0.0206376657288962</v>
+        <v>0.0042148664311361132</v>
       </c>
       <c r="C202">
-        <v>0.018454142716614989</v>
+        <v>0.0042307601093760109</v>
       </c>
       <c r="D202">
-        <v>0.022076608943876308</v>
+        <v>0.0064174989427052322</v>
       </c>
       <c r="E202">
-        <v>0.024912269549636164</v>
+        <v>0.0073617174469189162</v>
       </c>
       <c r="F202">
-        <v>0.031589491785528986</v>
+        <v>0.013470509914303028</v>
       </c>
       <c r="G202">
-        <v>0.10690246631448176</v>
+        <v>0.018631462804032321</v>
       </c>
       <c r="H202">
-        <v>0.020637665728896207</v>
+        <v>0.0042148664311361175</v>
       </c>
       <c r="I202">
-        <v>0.018454142716614993</v>
+        <v>0.0042307601093760144</v>
       </c>
       <c r="J202">
-        <v>0.022076608943876315</v>
+        <v>0.0064174989427052348</v>
       </c>
       <c r="K202">
-        <v>0.024912269549636164</v>
+        <v>0.007361717446918911</v>
       </c>
       <c r="L202">
-        <v>0.031589491785528986</v>
+        <v>0.013470509914303035</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>7.9616475769695434</v>
+        <v>52.352088528162326</v>
       </c>
       <c r="B203">
-        <v>43.693036708740557</v>
+        <v>232.57464980138744</v>
       </c>
       <c r="C203">
-        <v>46.714586637396046</v>
+        <v>229.11653063968632</v>
       </c>
       <c r="D203">
-        <v>37.805489563838613</v>
+        <v>148.66837835096817</v>
       </c>
       <c r="E203">
-        <v>36.218587094120828</v>
+        <v>131.96879923741591</v>
       </c>
       <c r="F203">
-        <v>25.874965410888052</v>
+        <v>68.531897682330708</v>
       </c>
       <c r="G203">
-        <v>1.3926735577574765</v>
+        <v>1.3205624342502811</v>
       </c>
       <c r="H203">
-        <v>4.7620557002731134</v>
+        <v>4.6807926517322169</v>
       </c>
       <c r="I203">
-        <v>7.4737880466070585</v>
+        <v>7.2476153169343744</v>
       </c>
       <c r="J203">
-        <v>7.4913222129258461</v>
+        <v>7.1555662928715549</v>
       </c>
       <c r="K203">
-        <v>3.9222759455778022</v>
+        <v>3.8690683811692126</v>
       </c>
       <c r="L203">
-        <v>5.7811310780746377</v>
+        <v>5.7043418039115208</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>7.2469609976402607e-12</v>
+        <v>7.5166558147094398e-181</v>
       </c>
       <c r="B204">
-        <v>4.9713130960772796e-197</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>3.2678888391167135e-248</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>3.8523085480798646e-167</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>8.5364891545223622e-150</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.2974704136824475e-116</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0.16739467833963048</v>
+        <v>0.1874041253932458</v>
       </c>
       <c r="H204">
-        <v>2.3567105168148002e-06</v>
+        <v>3.1753883985062345e-06</v>
       </c>
       <c r="I204">
-        <v>1.7684783968285043e-13</v>
+        <v>5.1873025899709054e-13</v>
       </c>
       <c r="J204">
-        <v>2.2023220950540971e-13</v>
+        <v>1.0031874232176263e-12</v>
       </c>
       <c r="K204">
-        <v>9.8435709418682221e-05</v>
+        <v>0.00011180294197659969</v>
       </c>
       <c r="L204">
-        <v>9.5602961088671952e-09</v>
+        <v>1.2409851299231661e-08</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.63853181833846429</v>
+        <v>0.93876790855750292</v>
       </c>
       <c r="B205">
-        <v>0.86119896129499585</v>
+        <v>0.9720019361279415</v>
       </c>
       <c r="C205">
-        <v>0.82586199210434352</v>
+        <v>0.96104209053613177</v>
       </c>
       <c r="D205">
-        <v>0.79126796747749462</v>
+        <v>0.94149690452809254</v>
       </c>
       <c r="E205">
-        <v>0.85335588832813714</v>
+        <v>0.95708192230674016</v>
       </c>
       <c r="F205">
-        <v>0.75539722737646509</v>
+        <v>0.89675095423465589</v>
       </c>
       <c r="G205">
-        <v>-0.0637077054710595</v>
+        <v>-0.012024071694224099</v>
       </c>
       <c r="H205">
-        <v>0.057754388744238445</v>
+        <v>0.011459767765731018</v>
       </c>
       <c r="I205">
-        <v>0.10170669459597921</v>
+        <v>0.022367934078108817</v>
       </c>
       <c r="J205">
-        <v>0.12203394941217066</v>
+        <v>0.033338582766013383</v>
       </c>
       <c r="K205">
-        <v>0.048781479536713773</v>
+        <v>0.014047898716691572</v>
       </c>
       <c r="L205">
-        <v>0.12064321278027541</v>
+        <v>0.050431739882982669</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.0637077054710595</v>
+        <v>1.0120240716942241</v>
       </c>
       <c r="B206">
-        <v>0.94224561125576145</v>
+        <v>0.9885402322342689</v>
       </c>
       <c r="C206">
-        <v>0.89829330540402075</v>
+        <v>0.97763206592189122</v>
       </c>
       <c r="D206">
-        <v>0.87796605058782939</v>
+        <v>0.96666141723398669</v>
       </c>
       <c r="E206">
-        <v>0.95121852046328614</v>
+        <v>0.98595210128330857</v>
       </c>
       <c r="F206">
-        <v>0.87935678721972454</v>
+        <v>0.94956826011701723</v>
       </c>
       <c r="G206">
-        <v>0.36146818166153571</v>
+        <v>0.061232091442497076</v>
       </c>
       <c r="H206">
-        <v>0.1388010387050041</v>
+        <v>0.02799806387205845</v>
       </c>
       <c r="I206">
-        <v>0.17413800789565648</v>
+        <v>0.038957909463868283</v>
       </c>
       <c r="J206">
-        <v>0.20873203252250544</v>
+        <v>0.058503095471907463</v>
       </c>
       <c r="K206">
-        <v>0.14664411167186278</v>
+        <v>0.04291807769325983</v>
       </c>
       <c r="L206">
-        <v>0.2446027726235348</v>
+        <v>0.10324904576534413</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>83.982002269388659</v>
+        <v>399.07062359674575</v>
       </c>
       <c r="B207">
-        <v>660.61655095629783</v>
+        <v>1226.2859349352377</v>
       </c>
       <c r="C207">
-        <v>948.7382174355663</v>
+        <v>3522.4618618431473</v>
       </c>
       <c r="D207">
-        <v>658.43890628696715</v>
+        <v>3635.0004969036895</v>
       </c>
       <c r="E207">
-        <v>568.54553342026531</v>
+        <v>2734.8810517613197</v>
       </c>
       <c r="F207">
-        <v>1145.0541471371268</v>
+        <v>4606.6499423981413</v>
       </c>
       <c r="G207">
-        <v>83.982002269388616</v>
+        <v>399.07062359674575</v>
       </c>
       <c r="H207">
-        <v>660.61655095629408</v>
+        <v>1226.2859349351875</v>
       </c>
       <c r="I207">
-        <v>948.73821743556323</v>
+        <v>3522.4618618430377</v>
       </c>
       <c r="J207">
-        <v>658.43890628696158</v>
+        <v>3635.0004969036245</v>
       </c>
       <c r="K207">
-        <v>568.54553342026486</v>
+        <v>2734.8810517613915</v>
       </c>
       <c r="L207">
-        <v>1145.0541471371248</v>
+        <v>4606.6499423980886</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9886158934903724</v>
+        <v>1.9659262374413962</v>
       </c>
       <c r="B208">
-        <v>1.9635614566449413</v>
+        <v>1.9619003800637085</v>
       </c>
       <c r="C208">
-        <v>1.9624675719686639</v>
+        <v>1.9606376817481963</v>
       </c>
       <c r="D208">
-        <v>1.963573376027558</v>
+        <v>1.9606168174362189</v>
       </c>
       <c r="E208">
-        <v>1.9641452566207132</v>
+        <v>1.9608317749719737</v>
       </c>
       <c r="F208">
-        <v>1.9620378935637821</v>
+        <v>1.9604790842505471</v>
       </c>
       <c r="G208">
-        <v>1.9886158934903724</v>
+        <v>1.9659262374413962</v>
       </c>
       <c r="H208">
-        <v>1.9635614566449413</v>
+        <v>1.9619003800637085</v>
       </c>
       <c r="I208">
-        <v>1.9624675719686639</v>
+        <v>1.9606376817481963</v>
       </c>
       <c r="J208">
-        <v>1.963573376027558</v>
+        <v>1.9606168174362189</v>
       </c>
       <c r="K208">
-        <v>1.9641452566207132</v>
+        <v>1.9608317749719701</v>
       </c>
       <c r="L208">
-        <v>1.9620378935637821</v>
+        <v>1.9604790842505471</v>
       </c>
     </row>
     <row r="209">
@@ -4716,114 +4716,114 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.69059768114423825</v>
+        <v>0.94271945231018806</v>
       </c>
       <c r="B211">
-        <v>0.7442547889087413</v>
+        <v>0.92520183195230088</v>
       </c>
       <c r="C211">
-        <v>0.30940231885576164</v>
+        <v>0.057280547689811966</v>
       </c>
       <c r="D211">
-        <v>0.2557452110912587</v>
+        <v>0.074798168047699135</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.026861550565744081</v>
+        <v>0.0056375275602719172</v>
       </c>
       <c r="B212">
-        <v>0.014651213918872561</v>
+        <v>0.0047306447716303299</v>
       </c>
       <c r="C212">
-        <v>0.026861550565744088</v>
+        <v>0.005637527560271925</v>
       </c>
       <c r="D212">
-        <v>0.014651213918872558</v>
+        <v>0.0047306447716303282</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>25.709524081790782</v>
+        <v>167.22214521018103</v>
       </c>
       <c r="B213">
-        <v>50.798165464641116</v>
+        <v>195.57626425487177</v>
       </c>
       <c r="C213">
-        <v>11.518408741836938</v>
+        <v>10.160579629529838</v>
       </c>
       <c r="D213">
-        <v>17.455564604228975</v>
+        <v>15.811410845359532</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>3.3596491441120791e-101</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>1.4448766189706461e-278</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>4.4945266573370173e-28</v>
+        <v>9.0288414719122666e-24</v>
       </c>
       <c r="D214">
-        <v>1.0002551851564382e-59</v>
+        <v>9.0988363522988924e-55</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.63785212920641798</v>
+        <v>0.9316644713201816</v>
       </c>
       <c r="B215">
-        <v>0.7155039492156372</v>
+        <v>0.91592730505336994</v>
       </c>
       <c r="C215">
-        <v>0.25665676691794137</v>
+        <v>0.046225566699805459</v>
       </c>
       <c r="D215">
-        <v>0.22699437139815468</v>
+        <v>0.065523641148768186</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.74334323308205852</v>
+        <v>0.95377443330019451</v>
       </c>
       <c r="B216">
-        <v>0.77300562860184541</v>
+        <v>0.93447635885123181</v>
       </c>
       <c r="C216">
-        <v>0.36214787079358191</v>
+        <v>0.068335528679818472</v>
       </c>
       <c r="D216">
-        <v>0.28449605078436269</v>
+        <v>0.084072694946630083</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>652.21822534012313</v>
+        <v>2376.6284791784574</v>
       </c>
       <c r="B217">
-        <v>994.57493628012833</v>
+        <v>4262.5434126256241</v>
       </c>
       <c r="C217">
-        <v>652.21822534011949</v>
+        <v>2376.6284791783169</v>
       </c>
       <c r="D217">
-        <v>994.57493628013219</v>
+        <v>4262.5434126256678</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9636078642863404</v>
+        <v>1.9609626510585552</v>
       </c>
       <c r="B218">
-        <v>1.9623520516664807</v>
+        <v>1.9605206788195726</v>
       </c>
       <c r="C218">
-        <v>1.9636078642863404</v>
+        <v>1.9609626510585552</v>
       </c>
       <c r="D218">
-        <v>1.9623520516664772</v>
+        <v>1.9605206788195726</v>
       </c>
     </row>
     <row r="219">
@@ -4842,114 +4842,114 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.47063045603226172</v>
+        <v>0.9037458040921974</v>
       </c>
       <c r="B221">
-        <v>0.41743215611032786</v>
+        <v>0.8317358479023127</v>
       </c>
       <c r="C221">
-        <v>0.52936954396773828</v>
+        <v>0.096254195907802542</v>
       </c>
       <c r="D221">
-        <v>0.5825678438896722</v>
+        <v>0.16826415209768725</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.02870489196475174</v>
+        <v>0.0072549406915549709</v>
       </c>
       <c r="B222">
-        <v>0.016310059726140913</v>
+        <v>0.0064400326550977244</v>
       </c>
       <c r="C222">
-        <v>0.02870489196475174</v>
+        <v>0.0072549406915549709</v>
       </c>
       <c r="D222">
-        <v>0.016310059726140913</v>
+        <v>0.0064400326550977183</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>16.395479091514222</v>
+        <v>124.56970256754713</v>
       </c>
       <c r="B223">
-        <v>25.593539393438846</v>
+        <v>129.15087429625643</v>
       </c>
       <c r="C223">
-        <v>18.441788410762154</v>
+        <v>13.267399417867898</v>
       </c>
       <c r="D223">
-        <v>35.718314566068869</v>
+        <v>26.12784144261984</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1.5809151714924736e-52</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>1.927929464013639e-114</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>6.934604076312513e-64</v>
+        <v>2.3925564917726442e-36</v>
       </c>
       <c r="D224">
-        <v>6.2928720098695073e-188</v>
+        <v>1.2314328098494831e-138</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.41428751052454066</v>
+        <v>0.88950412280912294</v>
       </c>
       <c r="B225">
-        <v>0.38543093007141638</v>
+        <v>0.81910963163390249</v>
       </c>
       <c r="C225">
-        <v>0.47302659846001721</v>
+        <v>0.082012514624728028</v>
       </c>
       <c r="D225">
-        <v>0.55056661785076066</v>
+        <v>0.15563793582927701</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.52697340153998284</v>
+        <v>0.91798748537527186</v>
       </c>
       <c r="B226">
-        <v>0.44943338214923934</v>
+        <v>0.8443620641707229</v>
       </c>
       <c r="C226">
-        <v>0.5857124894754594</v>
+        <v>0.11049587719087706</v>
       </c>
       <c r="D226">
-        <v>0.61456906992858373</v>
+        <v>0.18089036836609748</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>827.68409265431376</v>
+        <v>774.39695506967337</v>
       </c>
       <c r="B227">
-        <v>1135.9690213149272</v>
+        <v>3835.7071471786362</v>
       </c>
       <c r="C227">
-        <v>827.68409265431296</v>
+        <v>774.39695506967371</v>
       </c>
       <c r="D227">
-        <v>1135.9690213149258</v>
+        <v>3835.7071471787613</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9628342645186605</v>
+        <v>1.9630320754589181</v>
       </c>
       <c r="B228">
-        <v>1.9620544974229379</v>
+        <v>1.9605826468000478</v>
       </c>
       <c r="C228">
-        <v>1.9628342645186605</v>
+        <v>1.9630320754589181</v>
       </c>
       <c r="D228">
-        <v>1.9620544974229379</v>
+        <v>1.9605826468000478</v>
       </c>
     </row>
     <row r="229">
@@ -4968,44 +4968,44 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.97955398250612613</v>
+        <v>0.99618613663331224</v>
       </c>
       <c r="B231">
-        <v>0.97894090551414803</v>
+        <v>0.99360890573790139</v>
       </c>
       <c r="C231">
-        <v>0.020446017493873921</v>
+        <v>0.003813863366687778</v>
       </c>
       <c r="D231">
-        <v>0.021059094485851949</v>
+        <v>0.0063910942620985425</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.0079376656821082796</v>
+        <v>0.0015337309419087284</v>
       </c>
       <c r="B232">
-        <v>0.0047703050309521192</v>
+        <v>0.001479015191962527</v>
       </c>
       <c r="C232">
-        <v>0.0079376656821082865</v>
+        <v>0.0015337309419087334</v>
       </c>
       <c r="D232">
-        <v>0.0047703050309521175</v>
+        <v>0.001479015191962529</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>123.40579985801975</v>
+        <v>649.5181843260973</v>
       </c>
       <c r="B233">
-        <v>205.21557828321062</v>
+        <v>671.80439466579594</v>
       </c>
       <c r="C233">
-        <v>2.5758224536918704</v>
+        <v>2.4866573806885661</v>
       </c>
       <c r="D233">
-        <v>4.4146221990438859</v>
+        <v>4.321182295374598</v>
       </c>
     </row>
     <row r="234">
@@ -5016,66 +5016,66 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.010147170499932291</v>
+        <v>0.01304585649334682</v>
       </c>
       <c r="D234">
-        <v>1.1044664406294945e-05</v>
+        <v>1.5913832788993146e-05</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.96397701352212439</v>
+        <v>0.99317669049951574</v>
       </c>
       <c r="B235">
-        <v>0.96958168722458948</v>
+        <v>0.99070917222065535</v>
       </c>
       <c r="C235">
-        <v>0.0048690485098722164</v>
+        <v>0.00080441723289129607</v>
       </c>
       <c r="D235">
-        <v>0.011699876196293389</v>
+        <v>0.0034913607448524993</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.99513095149012787</v>
+        <v>0.99919558276710874</v>
       </c>
       <c r="B236">
-        <v>0.98830012380370658</v>
+        <v>0.99650863925514743</v>
       </c>
       <c r="C236">
-        <v>0.036022986477875628</v>
+        <v>0.0068233095004842596</v>
       </c>
       <c r="D236">
-        <v>0.03041831277541051</v>
+        <v>0.0092908277793445852</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>970.31831495580582</v>
+        <v>1074.8750203685784</v>
       </c>
       <c r="B237">
-        <v>1180.941561872181</v>
+        <v>3827.3543706302398</v>
       </c>
       <c r="C237">
-        <v>970.3183149557874</v>
+        <v>1074.8750203684501</v>
       </c>
       <c r="D237">
-        <v>1180.9415618721844</v>
+        <v>3827.3543706300388</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9624118233037473</v>
+        <v>1.9621734500910639</v>
       </c>
       <c r="B238">
-        <v>1.9619748063973446</v>
+        <v>1.9605839973816226</v>
       </c>
       <c r="C238">
-        <v>1.9624118233037473</v>
+        <v>1.9621734500910675</v>
       </c>
       <c r="D238">
-        <v>1.9619748063973446</v>
+        <v>1.9605839973816226</v>
       </c>
     </row>
     <row r="239">
@@ -5094,114 +5094,114 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.85921788031737401</v>
+        <v>0.97392713531751396</v>
       </c>
       <c r="B241">
-        <v>0.85937214946678286</v>
+        <v>0.95829651951713346</v>
       </c>
       <c r="C241">
-        <v>0.14078211968262611</v>
+        <v>0.026072864682486041</v>
       </c>
       <c r="D241">
-        <v>0.14062785053321719</v>
+        <v>0.041703480482866449</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.019764251488531847</v>
+        <v>0.0039070562169396857</v>
       </c>
       <c r="B242">
-        <v>0.011490235790390997</v>
+        <v>0.003645606299042062</v>
       </c>
       <c r="C242">
-        <v>0.019764251488531854</v>
+        <v>0.0039070562169396805</v>
       </c>
       <c r="D242">
-        <v>0.011490235790390997</v>
+        <v>0.0036456062990420594</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>43.473332689372668</v>
+        <v>249.27389861832356</v>
       </c>
       <c r="B243">
-        <v>74.791515608883742</v>
+        <v>262.86341445288275</v>
       </c>
       <c r="C243">
-        <v>7.1230686254075701</v>
+        <v>6.6732760510183793</v>
       </c>
       <c r="D243">
-        <v>12.238900323596564</v>
+        <v>11.439381288600664</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1.7231271722038368e-238</v>
+        <v>0</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1.9371489723311008e-12</v>
+        <v>3.1509783342836424e-11</v>
       </c>
       <c r="D244">
-        <v>1.5161291156783478e-32</v>
+        <v>6.7976997025760997e-30</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.82043670823919623</v>
+        <v>0.9662652578829698</v>
       </c>
       <c r="B245">
-        <v>0.8368290278151862</v>
+        <v>0.95114935760897523</v>
       </c>
       <c r="C245">
-        <v>0.10200094760444833</v>
+        <v>0.018410987247941882</v>
       </c>
       <c r="D245">
-        <v>0.11808472888162051</v>
+        <v>0.034556318574708214</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.89799905239555178</v>
+        <v>0.98158901275205812</v>
       </c>
       <c r="B246">
-        <v>0.88191527111837953</v>
+        <v>0.96544368142529169</v>
       </c>
       <c r="C246">
-        <v>0.17956329176080388</v>
+        <v>0.033734742117030203</v>
       </c>
       <c r="D246">
-        <v>0.16317097218481386</v>
+        <v>0.048850642391024685</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1067.9726454315585</v>
+        <v>2214.340838885917</v>
       </c>
       <c r="B247">
-        <v>1203.3930436377616</v>
+        <v>4541.3480058543419</v>
       </c>
       <c r="C247">
-        <v>1067.9726454315546</v>
+        <v>2214.340838886033</v>
       </c>
       <c r="D247">
-        <v>1203.3930436377616</v>
+        <v>4541.3480058544119</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9621877459250316</v>
+        <v>1.9610358820343692</v>
       </c>
       <c r="B248">
-        <v>1.9619372537549611</v>
+        <v>1.9604864930248407</v>
       </c>
       <c r="C248">
-        <v>1.9621877459250316</v>
+        <v>1.9610358820343656</v>
       </c>
       <c r="D248">
-        <v>1.9619372537549611</v>
+        <v>1.9604864930248407</v>
       </c>
     </row>
     <row r="249">
@@ -5220,114 +5220,114 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.52228333333333332</v>
+        <v>0.93390181101443481</v>
       </c>
       <c r="B251">
-        <v>0.73406389150473728</v>
+        <v>0.93080193255786736</v>
       </c>
       <c r="C251">
-        <v>0.47771666666666668</v>
+        <v>0.066098188985565229</v>
       </c>
       <c r="D251">
-        <v>0.26593610849526272</v>
+        <v>0.06919806744213261</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.09353205731972164</v>
+        <v>0.017412373688993441</v>
       </c>
       <c r="B252">
-        <v>0.013055630518603402</v>
+        <v>0.0038024254699270078</v>
       </c>
       <c r="C252">
-        <v>0.09353205731972164</v>
+        <v>0.017412373688993441</v>
       </c>
       <c r="D252">
-        <v>0.013055630518603402</v>
+        <v>0.0038024254699270078</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>5.5840034775243588</v>
+        <v>53.63437677682996</v>
       </c>
       <c r="B253">
-        <v>56.22584757271931</v>
+        <v>244.79163100486366</v>
       </c>
       <c r="C253">
-        <v>5.1075180035191856</v>
+        <v>3.7960470046279013</v>
       </c>
       <c r="D253">
-        <v>20.369457309344156</v>
+        <v>18.19840204348856</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>2.8872571426041044e-08</v>
+        <v>0</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>3.7773981706629215e-07</v>
+        <v>0.00014877884449799415</v>
       </c>
       <c r="D254">
-        <v>9.2944298044587337e-80</v>
+        <v>1.1006381746068643e-71</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.33878418003730226</v>
+        <v>0.89976584392853121</v>
       </c>
       <c r="B255">
-        <v>0.7084502440071706</v>
+        <v>0.92334749394964488</v>
       </c>
       <c r="C255">
-        <v>0.29421751337063562</v>
+        <v>0.031962221899661566</v>
       </c>
       <c r="D255">
-        <v>0.24032246099769608</v>
+        <v>0.061743628833910123</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.70578248662936438</v>
+        <v>0.96803777810033842</v>
       </c>
       <c r="B256">
-        <v>0.75967753900230395</v>
+        <v>0.93825637116608984</v>
       </c>
       <c r="C256">
-        <v>0.66121581996269774</v>
+        <v>0.10023415607146889</v>
       </c>
       <c r="D256">
-        <v>0.29154975599282934</v>
+        <v>0.07665250605035509</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B257">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C257">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D257">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B258">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C258">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D258">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="259">
@@ -5346,114 +5346,114 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.64624666666666664</v>
+        <v>0.9397134016735007</v>
       </c>
       <c r="B261">
-        <v>0.428315336762915</v>
+        <v>0.85191209703491266</v>
       </c>
       <c r="C261">
-        <v>0.35375333333333336</v>
+        <v>0.060286598326499317</v>
       </c>
       <c r="D261">
-        <v>0.571684663237085</v>
+        <v>0.14808790296508728</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.076511017020860772</v>
+        <v>0.011450372392461139</v>
       </c>
       <c r="B262">
-        <v>0.014550246801404933</v>
+        <v>0.0051318896555916588</v>
       </c>
       <c r="C262">
-        <v>0.076511017020860772</v>
+        <v>0.011450372392461139</v>
       </c>
       <c r="D262">
-        <v>0.014550246801404933</v>
+        <v>0.0051318896555916588</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>8.4464524434496422</v>
+        <v>82.068370308393</v>
       </c>
       <c r="B263">
-        <v>29.43698087111196</v>
+        <v>166.00358819225141</v>
       </c>
       <c r="C263">
-        <v>4.6235607250767865</v>
+        <v>5.2650338574308444</v>
       </c>
       <c r="D263">
-        <v>39.290375691901296</v>
+        <v>28.856408244033869</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>8.3224101108905744e-17</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>9.1135118287010653e-145</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>4.1679959494692098e-06</v>
+        <v>1.4608713795200582e-07</v>
       </c>
       <c r="D264">
-        <v>9.0460564436743859e-220</v>
+        <v>2.2045986558582841e-169</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.49614083938699838</v>
+        <v>0.91726559862884938</v>
       </c>
       <c r="B265">
-        <v>0.39976942379128705</v>
+        <v>0.84185131959579185</v>
       </c>
       <c r="C265">
-        <v>0.20364750605366508</v>
+        <v>0.037838795281848005</v>
       </c>
       <c r="D265">
-        <v>0.5431387502654571</v>
+        <v>0.13802712552596647</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.79635249394633489</v>
+        <v>0.96216120471815203</v>
       </c>
       <c r="B266">
-        <v>0.45686124973454295</v>
+        <v>0.86197287447403348</v>
       </c>
       <c r="C266">
-        <v>0.50385916061300162</v>
+        <v>0.082734401371150623</v>
       </c>
       <c r="D266">
-        <v>0.6002305762087129</v>
+        <v>0.1581486804042081</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B267">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C267">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D267">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B268">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C268">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D268">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="269">
@@ -5472,44 +5472,44 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.98676333333333321</v>
+        <v>0.99788375787578754</v>
       </c>
       <c r="B271">
-        <v>0.97860347013095639</v>
+        <v>0.99439689233243622</v>
       </c>
       <c r="C271">
-        <v>0.013236666666666669</v>
+        <v>0.0021162421242124211</v>
       </c>
       <c r="D271">
-        <v>0.021396529869043571</v>
+        <v>0.0056031076675638267</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.0091648215831742243</v>
+        <v>0.0015181845024731333</v>
       </c>
       <c r="B272">
-        <v>0.0043185797944801287</v>
+        <v>0.0011432882470974646</v>
       </c>
       <c r="C272">
-        <v>0.0091648215831742243</v>
+        <v>0.0015181845024731333</v>
       </c>
       <c r="D272">
-        <v>0.0043185797944801287</v>
+        <v>0.0011432882470974646</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>107.66858082048653</v>
+        <v>657.28754064491363</v>
       </c>
       <c r="B273">
-        <v>226.60307709997073</v>
+        <v>869.76918975330329</v>
       </c>
       <c r="C273">
-        <v>1.4442907094850577</v>
+        <v>1.3939294735027579</v>
       </c>
       <c r="D273">
-        <v>4.9545292404674184</v>
+        <v>4.9008705213132187</v>
       </c>
     </row>
     <row r="274">
@@ -5520,66 +5520,66 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>0.1489106515685403</v>
+        <v>0.16340143486282335</v>
       </c>
       <c r="D274">
-        <v>8.2568969829447534e-07</v>
+        <v>9.8456965737529151e-07</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.96878300606572099</v>
+        <v>0.99490744361028849</v>
       </c>
       <c r="B275">
-        <v>0.97013091260963946</v>
+        <v>0.99215554082748381</v>
       </c>
       <c r="C275">
-        <v>-0.0047436606009455592</v>
+        <v>-0.00086007214128665244</v>
       </c>
       <c r="D275">
-        <v>0.012923972347726666</v>
+        <v>0.0033617561626113966</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1.0047436606009454</v>
+        <v>1.0008600721412866</v>
       </c>
       <c r="B276">
-        <v>0.98707602765227331</v>
+        <v>0.99663824383738864</v>
       </c>
       <c r="C276">
-        <v>0.031216993934278896</v>
+        <v>0.0050925563897114947</v>
       </c>
       <c r="D276">
-        <v>0.029869087390360476</v>
+        <v>0.0078444591725162563</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B277">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C277">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D277">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B278">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C278">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D278">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="279">
@@ -5598,114 +5598,114 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.84470666666666683</v>
+        <v>0.97727499933326656</v>
       </c>
       <c r="B281">
-        <v>0.85901730160139123</v>
+        <v>0.96311397568698864</v>
       </c>
       <c r="C281">
-        <v>0.15529333333333334</v>
+        <v>0.022725000666733341</v>
       </c>
       <c r="D281">
-        <v>0.14098269839860877</v>
+        <v>0.036886024313011301</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.073700406379262312</v>
+        <v>0.0095853231188562597</v>
       </c>
       <c r="B282">
-        <v>0.010281362035436193</v>
+        <v>0.0028549240594694402</v>
       </c>
       <c r="C282">
-        <v>0.073700406379262312</v>
+        <v>0.0095853231188562597</v>
       </c>
       <c r="D282">
-        <v>0.010281362035436193</v>
+        <v>0.0028549240594694402</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>11.461356974340223</v>
+        <v>101.95535270071073</v>
       </c>
       <c r="B283">
-        <v>83.55092434646933</v>
+        <v>337.35187193244434</v>
       </c>
       <c r="C283">
-        <v>2.1070892409221438</v>
+        <v>2.3708121661573087</v>
       </c>
       <c r="D283">
-        <v>13.712453458276407</v>
+        <v>12.920142022925194</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>5.6568290850856584e-29</v>
+        <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>0.035310892275093701</v>
+        <v>0.017787106098201978</v>
       </c>
       <c r="D284">
-        <v>6.102789948525664e-40</v>
+        <v>1.3942209075435833e-37</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.70011493463687802</v>
+        <v>0.95848351918602748</v>
       </c>
       <c r="B285">
-        <v>0.83884645021315074</v>
+        <v>0.95751705963938472</v>
       </c>
       <c r="C285">
-        <v>0.010701601303544528</v>
+        <v>0.0039335205194942387</v>
       </c>
       <c r="D285">
-        <v>0.12081184701036825</v>
+        <v>0.0312891082654074</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.98929839869645564</v>
+        <v>0.99606647948050564</v>
       </c>
       <c r="B286">
-        <v>0.87918815298963171</v>
+        <v>0.96871089173459257</v>
       </c>
       <c r="C286">
-        <v>0.29988506536312215</v>
+        <v>0.04151648081397244</v>
       </c>
       <c r="D286">
-        <v>0.16115354978684931</v>
+        <v>0.042482940360615201</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B287">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C287">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D287">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B288">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C288">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D288">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="289">
@@ -5724,114 +5724,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.72122299093320863</v>
+        <v>0.90962100536857249</v>
       </c>
       <c r="B291">
-        <v>0.77715036624006562</v>
+        <v>0.93251101601463693</v>
       </c>
       <c r="C291">
-        <v>0.27877700906679137</v>
+        <v>0.94285466593660383</v>
       </c>
       <c r="D291">
-        <v>0.22284963375993438</v>
+        <v>0.090378994631427428</v>
+      </c>
+      <c r="E291">
+        <v>0.067488983985363002</v>
+      </c>
+      <c r="F291">
+        <v>0.057145334063396266</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.014036786553273313</v>
+        <v>0.0080651956177223878</v>
       </c>
       <c r="B292">
-        <v>0.030263466325119604</v>
+        <v>0.0094919559955155795</v>
       </c>
       <c r="C292">
-        <v>0.014036786553273313</v>
+        <v>0.0044691404806917979</v>
       </c>
       <c r="D292">
-        <v>0.030263466325119611</v>
+        <v>0.008065195617722393</v>
+      </c>
+      <c r="E292">
+        <v>0.0094919559955155726</v>
+      </c>
+      <c r="F292">
+        <v>0.0044691404806917979</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>51.380918858883895</v>
+        <v>112.7835019115692</v>
       </c>
       <c r="B293">
-        <v>25.67948951687028</v>
+        <v>98.242239687499236</v>
       </c>
       <c r="C293">
-        <v>19.860457948032405</v>
+        <v>210.97002209038979</v>
       </c>
       <c r="D293">
-        <v>7.3636519811004701</v>
+        <v>11.206051150554785</v>
+      </c>
+      <c r="E293">
+        <v>7.1101239846927058</v>
+      </c>
+      <c r="F293">
+        <v>12.786649761913612</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>5.7330777610691685e-303</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>1.099891158861689e-103</v>
+        <v>1.0800954494596735e-305</v>
       </c>
       <c r="C294">
-        <v>6.2640095498867485e-76</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>4.9158925476089991e-13</v>
+        <v>3.6048831836493828e-28</v>
+      </c>
+      <c r="E294">
+        <v>4.5959620762496002e-12</v>
+      </c>
+      <c r="F294">
+        <v>3.063400930192034e-35</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.69368307393618722</v>
+        <v>0.89380224215482673</v>
       </c>
       <c r="B295">
-        <v>0.71773495659271913</v>
+        <v>0.91385684205405182</v>
       </c>
       <c r="C295">
-        <v>0.25123709206976996</v>
+        <v>0.93408668171456566</v>
       </c>
       <c r="D295">
-        <v>0.16343422411258784</v>
+        <v>0.074560231417681616</v>
+      </c>
+      <c r="E295">
+        <v>0.048834810024777964</v>
+      </c>
+      <c r="F295">
+        <v>0.048377349841358143</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.74876290793023004</v>
+        <v>0.92543976858231825</v>
       </c>
       <c r="B296">
-        <v>0.8365657758874121</v>
+        <v>0.95116518997522204</v>
       </c>
       <c r="C296">
-        <v>0.30631692606381278</v>
+        <v>0.951622650158642</v>
       </c>
       <c r="D296">
-        <v>0.28226504340728092</v>
+        <v>0.10619775784517324</v>
+      </c>
+      <c r="E296">
+        <v>0.08614315794594804</v>
+      </c>
+      <c r="F296">
+        <v>0.065913318285434397</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1176.9668249765457</v>
+        <v>1698.8262451648425</v>
       </c>
       <c r="B297">
-        <v>718.36346541703858</v>
+        <v>449.01259495395544</v>
       </c>
       <c r="C297">
-        <v>1176.9668249765459</v>
+        <v>1229.7193348877947</v>
       </c>
       <c r="D297">
-        <v>718.36346541703438</v>
+        <v>1698.8262451648009</v>
+      </c>
+      <c r="E297">
+        <v>449.01259495396221</v>
+      </c>
+      <c r="F297">
+        <v>1229.7193348877954</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9619816040160016</v>
+        <v>1.9613613808679105</v>
       </c>
       <c r="B298">
-        <v>1.963271788137168</v>
+        <v>1.9652613190998898</v>
       </c>
       <c r="C298">
-        <v>1.9619816040160016</v>
+        <v>1.9618949683767584</v>
       </c>
       <c r="D298">
-        <v>1.963271788137168</v>
+        <v>1.9613613808679105</v>
+      </c>
+      <c r="E298">
+        <v>1.9652613190998898</v>
+      </c>
+      <c r="F298">
+        <v>1.9618949683767584</v>
       </c>
     </row>
     <row r="299">
@@ -5847,117 +5895,171 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.44606670133923565</v>
+        <v>0.86754536389013259</v>
       </c>
       <c r="B301">
-        <v>0.35623443567571295</v>
+        <v>0.85119281821416115</v>
       </c>
       <c r="C301">
-        <v>0.55393329866076435</v>
+        <v>0.85630733906937484</v>
       </c>
       <c r="D301">
-        <v>0.64376556432428711</v>
+        <v>0.13245463610986738</v>
+      </c>
+      <c r="E301">
+        <v>0.14880718178583888</v>
+      </c>
+      <c r="F301">
+        <v>0.1436926609306251</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.015613951538235056</v>
+        <v>0.0097122403845970873</v>
       </c>
       <c r="B302">
-        <v>0.035567709859935022</v>
+        <v>0.012107908162180022</v>
       </c>
       <c r="C302">
-        <v>0.015613951538235058</v>
+        <v>0.0063804012859429984</v>
       </c>
       <c r="D302">
-        <v>0.035567709859935022</v>
+        <v>0.0097122403845970699</v>
+      </c>
+      <c r="E302">
+        <v>0.012107908162180022</v>
+      </c>
+      <c r="F302">
+        <v>0.0063804012859430062</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>28.568469694998001</v>
+        <v>89.324947647094589</v>
       </c>
       <c r="B303">
-        <v>10.015669748728763</v>
+        <v>70.30056776222726</v>
       </c>
       <c r="C303">
-        <v>35.476816826560928</v>
+        <v>134.20900985584575</v>
       </c>
       <c r="D303">
-        <v>18.099719292004572</v>
+        <v>13.637907513072999</v>
+      </c>
+      <c r="E303">
+        <v>12.290081803779245</v>
+      </c>
+      <c r="F303">
+        <v>22.520944136727241</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>3.4428446763233607e-134</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>3.1820187069995904e-21</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>1.9189081796817842e-183</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>5.8499310716094034e-54</v>
+        <v>4.1666880953269831e-37</v>
+      </c>
+      <c r="E304">
+        <v>1.1526059309198049e-33</v>
+      </c>
+      <c r="F304">
+        <v>8.6065714514638566e-103</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.41542961427263064</v>
+        <v>0.84847145104090105</v>
       </c>
       <c r="B305">
-        <v>0.28631207288772242</v>
+        <v>0.82744919023576458</v>
       </c>
       <c r="C305">
-        <v>0.52329621159415929</v>
+        <v>0.84379618486911956</v>
       </c>
       <c r="D305">
-        <v>0.57384320153629664</v>
+        <v>0.11338072326063582</v>
+      </c>
+      <c r="E305">
+        <v>0.1250635538074423</v>
+      </c>
+      <c r="F305">
+        <v>0.1311815067303698</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.47670378840584066</v>
+        <v>0.88661927673936414</v>
       </c>
       <c r="B306">
-        <v>0.42615679846370347</v>
+        <v>0.87493644619255773</v>
       </c>
       <c r="C306">
-        <v>0.58457038572736941</v>
+        <v>0.86881849326963012</v>
       </c>
       <c r="D306">
-        <v>0.71368792711227758</v>
+        <v>0.15152854895909892</v>
+      </c>
+      <c r="E306">
+        <v>0.17255080976423545</v>
+      </c>
+      <c r="F306">
+        <v>0.15620381513088041</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1080.9498867587722</v>
+        <v>603.2057852379246</v>
       </c>
       <c r="B307">
-        <v>401.20446878223873</v>
+        <v>2287.3343694777</v>
       </c>
       <c r="C307">
-        <v>1080.9498867587704</v>
+        <v>2611.9896884665441</v>
       </c>
       <c r="D307">
-        <v>401.20446878223959</v>
+        <v>603.20578523795348</v>
+      </c>
+      <c r="E307">
+        <v>2287.3343694777</v>
+      </c>
+      <c r="F307">
+        <v>2611.989688466399</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.962161019366665</v>
+        <v>1.963904526033091</v>
       </c>
       <c r="B308">
-        <v>1.9658944324316481</v>
+        <v>1.961001657789379</v>
       </c>
       <c r="C308">
-        <v>1.962161019366665</v>
+        <v>1.9608726221999988</v>
       </c>
       <c r="D308">
-        <v>1.9658944324316481</v>
+        <v>1.963904526033091</v>
+      </c>
+      <c r="E308">
+        <v>1.961001657789379</v>
+      </c>
+      <c r="F308">
+        <v>1.9608726221999988</v>
       </c>
     </row>
     <row r="309">
@@ -5973,47 +6075,71 @@
       <c r="D309">
         <v>0</v>
       </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.97879922483377602</v>
+        <v>0.9894388862325153</v>
       </c>
       <c r="B311">
-        <v>0.9786574529103127</v>
+        <v>0.99533294363904523</v>
       </c>
       <c r="C311">
-        <v>0.021200775166224029</v>
+        <v>0.99708146086383354</v>
       </c>
       <c r="D311">
-        <v>0.021342547089687237</v>
+        <v>0.01056111376748475</v>
+      </c>
+      <c r="E311">
+        <v>0.0046670563609547602</v>
+      </c>
+      <c r="F311">
+        <v>0.0029185391361664361</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.0044880468213081004</v>
+        <v>0.0028713898134362674</v>
       </c>
       <c r="B312">
-        <v>0.010653902266999388</v>
+        <v>0.0026795692809647598</v>
       </c>
       <c r="C312">
-        <v>0.0044880468213080987</v>
+        <v>0.0010525807979178074</v>
       </c>
       <c r="D312">
-        <v>0.010653902266999388</v>
+        <v>0.0028713898134362661</v>
+      </c>
+      <c r="E312">
+        <v>0.0026795692809647581</v>
+      </c>
+      <c r="F312">
+        <v>0.0010525807979178089</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>218.09024366383326</v>
+        <v>344.58535779523015</v>
       </c>
       <c r="B313">
-        <v>91.859060500462633</v>
+        <v>371.45258781317375</v>
       </c>
       <c r="C313">
-        <v>4.7238311030019053</v>
+        <v>947.27308614810249</v>
       </c>
       <c r="D313">
-        <v>2.0032610169323664</v>
+        <v>3.6780494651285238</v>
+      </c>
+      <c r="E313">
+        <v>1.7417188628444131</v>
+      </c>
+      <c r="F313">
+        <v>2.772745942107079</v>
       </c>
     </row>
     <row r="314">
@@ -6024,66 +6150,96 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>2.5817823802068205e-06</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>0.045390010111744136</v>
+        <v>0.00024011362061690536</v>
+      </c>
+      <c r="E314">
+        <v>0.082424809590779094</v>
+      </c>
+      <c r="F314">
+        <v>0.0056481943860710471</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.96999411183625661</v>
+        <v>0.98380826732746185</v>
       </c>
       <c r="B315">
-        <v>0.95775358427624957</v>
+        <v>0.99006309732240017</v>
       </c>
       <c r="C315">
-        <v>0.012395662168704672</v>
+        <v>0.99501627024065153</v>
       </c>
       <c r="D315">
-        <v>0.0004386784556241613</v>
+        <v>0.004930494862431252</v>
+      </c>
+      <c r="E315">
+        <v>-0.00060278995569028933</v>
+      </c>
+      <c r="F315">
+        <v>0.00085334851298443952</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.98760433783129542</v>
+        <v>0.99506950513756875</v>
       </c>
       <c r="B316">
-        <v>0.99956132154437582</v>
+        <v>1.0006027899556902</v>
       </c>
       <c r="C316">
-        <v>0.030005888163743388</v>
+        <v>0.99914665148701554</v>
       </c>
       <c r="D316">
-        <v>0.042246415723750312</v>
+        <v>0.016191732672538248</v>
+      </c>
+      <c r="E316">
+        <v>0.0099369026775998105</v>
+      </c>
+      <c r="F316">
+        <v>0.0049837297593484323</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1224.5638965491028</v>
+        <v>2435.4360161687864</v>
       </c>
       <c r="B317">
-        <v>1119.3129233262569</v>
+        <v>354.59150341601634</v>
       </c>
       <c r="C317">
-        <v>1224.5638965491055</v>
+        <v>1151.794715420916</v>
       </c>
       <c r="D317">
-        <v>1119.3129233262553</v>
+        <v>2435.4360161688419</v>
+      </c>
+      <c r="E317">
+        <v>354.59150341602094</v>
+      </c>
+      <c r="F317">
+        <v>1151.7947154208591</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9619031057597109</v>
+        <v>1.9609385248585218</v>
       </c>
       <c r="B318">
-        <v>1.9620856386878169</v>
+        <v>1.9666766424295183</v>
       </c>
       <c r="C318">
-        <v>1.9619031057597109</v>
+        <v>1.9620257440258357</v>
       </c>
       <c r="D318">
-        <v>1.9620856386878169</v>
+        <v>1.9609385248585218</v>
+      </c>
+      <c r="E318">
+        <v>1.9666766424295183</v>
+      </c>
+      <c r="F318">
+        <v>1.9620257440258357</v>
       </c>
     </row>
     <row r="319">
@@ -6099,47 +6255,71 @@
       <c r="D319">
         <v>0</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.8539110828937797</v>
+        <v>0.962922232237862</v>
       </c>
       <c r="B321">
-        <v>0.88795774517390869</v>
+        <v>0.96862301635125658</v>
       </c>
       <c r="C321">
-        <v>0.14608891710622021</v>
+        <v>0.96569087277503018</v>
       </c>
       <c r="D321">
-        <v>0.11204225482609134</v>
+        <v>0.037077767762137954</v>
+      </c>
+      <c r="E321">
+        <v>0.031376983648743514</v>
+      </c>
+      <c r="F321">
+        <v>0.034309127224969753</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.011098218116049392</v>
+        <v>0.0052831702313371051</v>
       </c>
       <c r="B322">
-        <v>0.024027418164956609</v>
+        <v>0.0061438320914552376</v>
       </c>
       <c r="C322">
-        <v>0.011098218116049387</v>
+        <v>0.0034514985198204834</v>
       </c>
       <c r="D322">
-        <v>0.024027418164956613</v>
+        <v>0.0052831702313371033</v>
+      </c>
+      <c r="E322">
+        <v>0.0061438320914552454</v>
+      </c>
+      <c r="F322">
+        <v>0.0034514985198204895</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>76.941277776737778</v>
+        <v>182.26220054888489</v>
       </c>
       <c r="B323">
-        <v>36.956019955109987</v>
+        <v>157.65779434278568</v>
       </c>
       <c r="C323">
-        <v>13.163276805215936</v>
+        <v>279.78887061068679</v>
       </c>
       <c r="D323">
-        <v>4.6631000491556005</v>
+        <v>7.0180906801396103</v>
+      </c>
+      <c r="E323">
+        <v>5.1070705028514984</v>
+      </c>
+      <c r="F323">
+        <v>9.9403569284318145</v>
       </c>
     </row>
     <row r="324">
@@ -6147,69 +6327,99 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>2.3674237799399931e-118</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>7.4364080059414465e-37</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>4.5569077851983617e-06</v>
+        <v>2.8879695927631148e-12</v>
+      </c>
+      <c r="E324">
+        <v>3.5872644016354855e-07</v>
+      </c>
+      <c r="F324">
+        <v>6.0920717075060024e-23</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.83213501233200426</v>
+        <v>0.95256237576416403</v>
       </c>
       <c r="B325">
-        <v>0.84068865288522587</v>
+        <v>0.95657392719953216</v>
       </c>
       <c r="C325">
-        <v>0.12431284654444477</v>
+        <v>0.95892342288163468</v>
       </c>
       <c r="D325">
-        <v>0.064773162537408474</v>
+        <v>0.026717911288439981</v>
+      </c>
+      <c r="E325">
+        <v>0.019327894497019119</v>
+      </c>
+      <c r="F325">
+        <v>0.027541677331574223</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.87568715345555515</v>
+        <v>0.97328208871155997</v>
       </c>
       <c r="B326">
-        <v>0.9352268374625915</v>
+        <v>0.98067210550298101</v>
       </c>
       <c r="C326">
-        <v>0.16786498766799565</v>
+        <v>0.97245832266842569</v>
       </c>
       <c r="D326">
-        <v>0.15931134711477421</v>
+        <v>0.047437624235835932</v>
+      </c>
+      <c r="E326">
+        <v>0.04342607280046791</v>
+      </c>
+      <c r="F326">
+        <v>0.041076577118365286</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1099.8935365698919</v>
+        <v>2491.3294260304992</v>
       </c>
       <c r="B327">
-        <v>324.64910905276577</v>
+        <v>1970.888387753964</v>
       </c>
       <c r="C327">
-        <v>1099.8935365698976</v>
+        <v>3106.0718913610235</v>
       </c>
       <c r="D327">
-        <v>324.64910905276508</v>
+        <v>2491.329426030542</v>
+      </c>
+      <c r="E327">
+        <v>1970.8883877538499</v>
+      </c>
+      <c r="F327">
+        <v>3106.0718913607802</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9621231385139717</v>
+        <v>1.9609166504324478</v>
       </c>
       <c r="B328">
-        <v>1.9672980244553973</v>
+        <v>1.9611683672934515</v>
       </c>
       <c r="C328">
-        <v>1.9621231385139717</v>
+        <v>1.9607280300231742</v>
       </c>
       <c r="D328">
-        <v>1.9672980244553973</v>
+        <v>1.9609166504324478</v>
+      </c>
+      <c r="E328">
+        <v>1.9611683672934515</v>
+      </c>
+      <c r="F328">
+        <v>1.9607280300231742</v>
       </c>
     </row>
     <row r="329">
@@ -6225,165 +6435,171 @@
       <c r="D329">
         <v>0</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.7131370873074101</v>
+        <v>0.9157306520661157</v>
       </c>
       <c r="B331">
-        <v>0.72808833536833539</v>
+        <v>0.92048366026849737</v>
       </c>
       <c r="C331">
-        <v>0.72986814192135685</v>
+        <v>0.94083565741573172</v>
       </c>
       <c r="D331">
-        <v>0.2868629126925899</v>
+        <v>0.084269347933884298</v>
       </c>
       <c r="E331">
-        <v>0.27191166463166461</v>
+        <v>0.079516339731502628</v>
       </c>
       <c r="F331">
-        <v>0.27013185807864315</v>
+        <v>0.059164342584268281</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.033419204582679246</v>
+        <v>0.010290741747384922</v>
       </c>
       <c r="B332">
-        <v>0.022856654331521779</v>
+        <v>0.0078275605830358409</v>
       </c>
       <c r="C332">
-        <v>0.018185172288932884</v>
+        <v>0.0044630263295868727</v>
       </c>
       <c r="D332">
-        <v>0.033419204582679246</v>
+        <v>0.010290741747384922</v>
       </c>
       <c r="E332">
-        <v>0.022856654331521779</v>
+        <v>0.0078275605830358409</v>
       </c>
       <c r="F332">
-        <v>0.018185172288932884</v>
+        <v>0.0044630263295868727</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>21.339140060712879</v>
+        <v>88.98587434660098</v>
       </c>
       <c r="B333">
-        <v>31.854545499435734</v>
+        <v>117.59521379667137</v>
       </c>
       <c r="C333">
-        <v>40.135343802353709</v>
+        <v>210.80665627684562</v>
       </c>
       <c r="D333">
-        <v>8.5837743978283481</v>
+        <v>8.1888507167424329</v>
       </c>
       <c r="E333">
-        <v>11.896389589121503</v>
+        <v>10.158508374094628</v>
       </c>
       <c r="F333">
-        <v>14.854511895003588</v>
+        <v>13.256552441120132</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>2.8674606353383471e-86</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>4.5913575974296327e-163</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>3.543579773484032e-226</v>
+        <v>0</v>
       </c>
       <c r="D334">
-        <v>2.7172495971569359e-17</v>
+        <v>3.3247120113397171e-16</v>
       </c>
       <c r="E334">
-        <v>5.6372654590387441e-31</v>
+        <v>5.2135195090869632e-24</v>
       </c>
       <c r="F334">
-        <v>4.746762448847249e-46</v>
+        <v>1.9292128053096439e-39</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.64757244647217171</v>
+        <v>0.8955562388670516</v>
       </c>
       <c r="B335">
-        <v>0.68324620490308419</v>
+        <v>0.90513817347858716</v>
       </c>
       <c r="C335">
-        <v>0.69419092265358373</v>
+        <v>0.93208614843944548</v>
       </c>
       <c r="D335">
-        <v>0.22129827185735146</v>
+        <v>0.064094934734820155</v>
       </c>
       <c r="E335">
-        <v>0.22706953416641346</v>
+        <v>0.064170852941592457</v>
       </c>
       <c r="F335">
-        <v>0.23445463881087003</v>
+        <v>0.050414833607982018</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.77870172814264849</v>
+        <v>0.9359050652651798</v>
       </c>
       <c r="B336">
-        <v>0.7729304658335866</v>
+        <v>0.93582914705840758</v>
       </c>
       <c r="C336">
-        <v>0.76554536118912997</v>
+        <v>0.94958516639201795</v>
       </c>
       <c r="D336">
-        <v>0.35242755352782834</v>
+        <v>0.10444376113294844</v>
       </c>
       <c r="E336">
-        <v>0.31675379509691576</v>
+        <v>0.094861826521412798</v>
       </c>
       <c r="F336">
-        <v>0.30580907734641627</v>
+        <v>0.067913851560554545</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B337">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C337">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D337">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E337">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F337">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B338">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C338">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D338">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E338">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F338">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="339">
@@ -6408,162 +6624,162 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.49592455979457084</v>
+        <v>0.85153635041322295</v>
       </c>
       <c r="B341">
-        <v>0.42638284900284901</v>
+        <v>0.83347058861608336</v>
       </c>
       <c r="C341">
-        <v>0.41263727569633879</v>
+        <v>0.86887620964120538</v>
       </c>
       <c r="D341">
-        <v>0.50407544020542927</v>
+        <v>0.14846364958677685</v>
       </c>
       <c r="E341">
-        <v>0.57361715099715105</v>
+        <v>0.16652941138391672</v>
       </c>
       <c r="F341">
-        <v>0.58736272430366121</v>
+        <v>0.1311237903587946</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.03630718669115205</v>
+        <v>0.01268306641446568</v>
       </c>
       <c r="B342">
-        <v>0.025261560303473377</v>
+        <v>0.010551872265703146</v>
       </c>
       <c r="C342">
-        <v>0.020069967112041814</v>
+        <v>0.006134576891289086</v>
       </c>
       <c r="D342">
-        <v>0.03630718669115205</v>
+        <v>0.01268306641446568</v>
       </c>
       <c r="E342">
-        <v>0.025261560303473377</v>
+        <v>0.010551872265703146</v>
       </c>
       <c r="F342">
-        <v>0.020069967112041814</v>
+        <v>0.006134576891289086</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>13.659129362271027</v>
+        <v>67.139627167922313</v>
       </c>
       <c r="B343">
-        <v>16.878721816095535</v>
+        <v>78.987933859389202</v>
       </c>
       <c r="C343">
-        <v>20.559937811196502</v>
+        <v>141.63588215431506</v>
       </c>
       <c r="D343">
-        <v>13.883627076186293</v>
+        <v>11.705658926255131</v>
       </c>
       <c r="E343">
-        <v>22.707114845882291</v>
+        <v>15.78197756669107</v>
       </c>
       <c r="F343">
-        <v>29.265754200027981</v>
+        <v>21.374545088021705</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1.1540182939222814e-39</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>1.1188544201167135e-57</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>5.020481743511812e-81</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>7.7998370788993925e-41</v>
+        <v>3.0649103439832218e-31</v>
       </c>
       <c r="E344">
-        <v>1.104404740443622e-95</v>
+        <v>8.781951079716042e-55</v>
       </c>
       <c r="F344">
-        <v>1.7674522827687542e-143</v>
+        <v>4.9457529239624672e-97</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.42469402977839266</v>
+        <v>0.82667192093304231</v>
       </c>
       <c r="B345">
-        <v>0.37682256925000984</v>
+        <v>0.81278424390569004</v>
       </c>
       <c r="C345">
-        <v>0.37326230547463357</v>
+        <v>0.85684972097358858</v>
       </c>
       <c r="D345">
-        <v>0.43284491018925109</v>
+        <v>0.12359922010659619</v>
       </c>
       <c r="E345">
-        <v>0.52405687124431188</v>
+        <v>0.14584306667352334</v>
       </c>
       <c r="F345">
-        <v>0.54798775408195599</v>
+        <v>0.11909730169117774</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.56715508981074902</v>
+        <v>0.87640077989340359</v>
       </c>
       <c r="B346">
-        <v>0.47594312875568817</v>
+        <v>0.85415693332647669</v>
       </c>
       <c r="C346">
-        <v>0.45201224591804401</v>
+        <v>0.88090269830882217</v>
       </c>
       <c r="D346">
-        <v>0.57530597022160745</v>
+        <v>0.17332807906695752</v>
       </c>
       <c r="E346">
-        <v>0.62317743074999021</v>
+        <v>0.1872157560943101</v>
       </c>
       <c r="F346">
-        <v>0.62673769452536643</v>
+        <v>0.14315027902641145</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B347">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C347">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D347">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E347">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F347">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B348">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C348">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D348">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E348">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F348">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="349">
@@ -6588,62 +6804,62 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.95250770359501102</v>
+        <v>0.9860902661157025</v>
       </c>
       <c r="B351">
-        <v>0.97931631664631669</v>
+        <v>0.99313354841830503</v>
       </c>
       <c r="C351">
-        <v>0.98691105420401182</v>
+        <v>0.99705357129656458</v>
       </c>
       <c r="D351">
-        <v>0.04749229640498899</v>
+        <v>0.013909733884297521</v>
       </c>
       <c r="E351">
-        <v>0.020683683353683351</v>
+        <v>0.0068664515816949821</v>
       </c>
       <c r="F351">
-        <v>0.013088945795988049</v>
+        <v>0.0029464287034356154</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.015806374312468643</v>
+        <v>0.00439564069093992</v>
       </c>
       <c r="B352">
-        <v>0.007750239914799833</v>
+        <v>0.0026838570168807472</v>
       </c>
       <c r="C352">
-        <v>0.0045909490201449582</v>
+        <v>0.0010416032773902758</v>
       </c>
       <c r="D352">
-        <v>0.015806374312468643</v>
+        <v>0.00439564069093992</v>
       </c>
       <c r="E352">
-        <v>0.007750239914799833</v>
+        <v>0.0026838570168807472</v>
       </c>
       <c r="F352">
-        <v>0.0045909490201449582</v>
+        <v>0.0010416032773902758</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>60.260986154404705</v>
+        <v>224.333683175739</v>
       </c>
       <c r="B353">
-        <v>126.3594840175486</v>
+        <v>370.03966387618976</v>
       </c>
       <c r="C353">
-        <v>214.96885499566065</v>
+        <v>957.22967941755144</v>
       </c>
       <c r="D353">
-        <v>3.0046293644662927</v>
+        <v>3.1644383293128544</v>
       </c>
       <c r="E353">
-        <v>2.668779751473997</v>
+        <v>2.5584267487078582</v>
       </c>
       <c r="F353">
-        <v>2.8510327033809602</v>
+        <v>2.8287436948334652</v>
       </c>
     </row>
     <row r="354">
@@ -6657,93 +6873,93 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>0.002712602481207884</v>
+        <v>0.0015632349720460319</v>
       </c>
       <c r="E354">
-        <v>0.007712388269495502</v>
+        <v>0.010544180035138512</v>
       </c>
       <c r="F354">
-        <v>0.0044301867111648831</v>
+        <v>0.0046918949182754412</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.92149741272646457</v>
+        <v>0.97747286284677126</v>
       </c>
       <c r="B355">
-        <v>0.96411123613209815</v>
+        <v>0.98787199956644323</v>
       </c>
       <c r="C355">
-        <v>0.97790413954648281</v>
+        <v>0.99501156738436736</v>
       </c>
       <c r="D355">
-        <v>0.016482005536442499</v>
+        <v>0.0052923306153663079</v>
       </c>
       <c r="E355">
-        <v>0.0054786028394647884</v>
+        <v>0.001604902729833141</v>
       </c>
       <c r="F355">
-        <v>0.0040820311384590514</v>
+        <v>0.00090442479123843634</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>0.98351799446355748</v>
+        <v>0.99470766938463373</v>
       </c>
       <c r="B356">
-        <v>0.99452139716053523</v>
+        <v>0.99839509727016684</v>
       </c>
       <c r="C356">
-        <v>0.99591796886154083</v>
+        <v>0.9990955752087618</v>
       </c>
       <c r="D356">
-        <v>0.078502587273535485</v>
+        <v>0.022527137153228734</v>
       </c>
       <c r="E356">
-        <v>0.035888763867901914</v>
+        <v>0.012128000433556822</v>
       </c>
       <c r="F356">
-        <v>0.022095860453517045</v>
+        <v>0.004988432615632794</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B357">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C357">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D357">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E357">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F357">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B358">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C358">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D358">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E358">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F358">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="359">
@@ -6768,162 +6984,162 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.83843064930300815</v>
+        <v>0.94959104297520658</v>
       </c>
       <c r="B361">
-        <v>0.86621249898249908</v>
+        <v>0.96289717448440304</v>
       </c>
       <c r="C361">
-        <v>0.87058352817829243</v>
+        <v>0.97285749624305162</v>
       </c>
       <c r="D361">
-        <v>0.16156935069699191</v>
+        <v>0.050408957024793387</v>
       </c>
       <c r="E361">
-        <v>0.133787501017501</v>
+        <v>0.037102825515596904</v>
       </c>
       <c r="F361">
-        <v>0.1294164718217076</v>
+        <v>0.027142503756948443</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.025876294661683903</v>
+        <v>0.0078645337703899289</v>
       </c>
       <c r="B362">
-        <v>0.017070365618530738</v>
+        <v>0.0051055852924724431</v>
       </c>
       <c r="C362">
-        <v>0.013875368131159992</v>
+        <v>0.003088474331986551</v>
       </c>
       <c r="D362">
-        <v>0.025876294661683903</v>
+        <v>0.0078645337703899289</v>
       </c>
       <c r="E362">
-        <v>0.017070365618530738</v>
+        <v>0.0051055852924724431</v>
       </c>
       <c r="F362">
-        <v>0.013875368131159992</v>
+        <v>0.003088474331986551</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>32.401495664852938</v>
+        <v>120.74346308365146</v>
       </c>
       <c r="B363">
-        <v>50.74364066591415</v>
+        <v>188.59682471744745</v>
       </c>
       <c r="C363">
-        <v>62.743094089389828</v>
+        <v>314.99614102905485</v>
       </c>
       <c r="D363">
-        <v>6.2439136982094388</v>
+        <v>6.4096561215852059</v>
       </c>
       <c r="E363">
-        <v>7.8374127424820923</v>
+        <v>7.2671052171629471</v>
       </c>
       <c r="F363">
-        <v>9.3270658189656466</v>
+        <v>8.7883209764252737</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>3.1574245455077484e-167</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>1.7041968457983342e-304</v>
+        <v>0</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
       <c r="D364">
-        <v>5.8562898339455648e-10</v>
+        <v>1.593942488632734e-10</v>
       </c>
       <c r="E364">
-        <v>9.8624762761571958e-15</v>
+        <v>4.2459829291678548e-13</v>
       </c>
       <c r="F364">
-        <v>4.8600663826852638e-20</v>
+        <v>2.0609293968382707e-18</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.78766433134822911</v>
+        <v>0.9341730723568924</v>
       </c>
       <c r="B365">
-        <v>0.8327224023544888</v>
+        <v>0.95288796525130004</v>
       </c>
       <c r="C365">
-        <v>0.84336164964059313</v>
+        <v>0.96680271818548025</v>
       </c>
       <c r="D365">
-        <v>0.1108030327422129</v>
+        <v>0.034990986406479171</v>
       </c>
       <c r="E365">
-        <v>0.10029740438949078</v>
+        <v>0.02709361628249389</v>
       </c>
       <c r="F365">
-        <v>0.10219459328400829</v>
+        <v>0.021087725699377037</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.88919696725778719</v>
+        <v>0.96500901359352076</v>
       </c>
       <c r="B366">
-        <v>0.89970259561050936</v>
+        <v>0.97290638371750604</v>
       </c>
       <c r="C366">
-        <v>0.89780540671599174</v>
+        <v>0.978912274300623</v>
       </c>
       <c r="D366">
-        <v>0.21233566865177092</v>
+        <v>0.065826927643107602</v>
       </c>
       <c r="E366">
-        <v>0.16727759764551123</v>
+        <v>0.047112034748699919</v>
       </c>
       <c r="F366">
-        <v>0.1566383503594069</v>
+        <v>0.033197281814519849</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B367">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C367">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D367">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E367">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F367">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B368">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C368">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D368">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E368">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F368">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="369">
@@ -6948,162 +7164,162 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.78491632882882878</v>
+        <v>0.95858563049319634</v>
       </c>
       <c r="B371">
-        <v>0.69941827609427598</v>
+        <v>0.92744289583134398</v>
       </c>
       <c r="C371">
-        <v>0.73627720699545862</v>
+        <v>0.92742082578832075</v>
       </c>
       <c r="D371">
-        <v>0.21508367117117114</v>
+        <v>0.041414369506803619</v>
       </c>
       <c r="E371">
-        <v>0.30058172390572391</v>
+        <v>0.072557104168655961</v>
       </c>
       <c r="F371">
-        <v>0.26372279300454149</v>
+        <v>0.072579174211679323</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.033051882649850574</v>
+        <v>0.0075474984268664629</v>
       </c>
       <c r="B372">
-        <v>0.02638358242320939</v>
+        <v>0.0073232162069356245</v>
       </c>
       <c r="C372">
-        <v>0.015725209953085698</v>
+        <v>0.0048474781100040238</v>
       </c>
       <c r="D372">
-        <v>0.033051882649850574</v>
+        <v>0.0075474984268664629</v>
       </c>
       <c r="E372">
-        <v>0.02638358242320939</v>
+        <v>0.0073232162069356245</v>
       </c>
       <c r="F372">
-        <v>0.015725209953085698</v>
+        <v>0.0048474781100040238</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>23.748006645920285</v>
+        <v>127.00706595459043</v>
       </c>
       <c r="B373">
-        <v>26.509602254734151</v>
+        <v>126.64420517217386</v>
       </c>
       <c r="C373">
-        <v>46.821454797236697</v>
+        <v>191.32027102388523</v>
       </c>
       <c r="D373">
-        <v>6.5074559730758184</v>
+        <v>5.487165039926726</v>
       </c>
       <c r="E373">
-        <v>11.392756263505179</v>
+        <v>9.9078194769040202</v>
       </c>
       <c r="F373">
-        <v>16.770700918545902</v>
+        <v>14.972563581441129</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>5.2580163734452884e-103</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>5.6647766785406688e-123</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>4.4163465647514664e-276</v>
+        <v>0</v>
       </c>
       <c r="D374">
-        <v>1.1080147516913757e-10</v>
+        <v>4.2876009693946716e-08</v>
       </c>
       <c r="E374">
-        <v>1.1556014225509968e-28</v>
+        <v>6.2825824488732848e-23</v>
       </c>
       <c r="F374">
-        <v>4.9344311162114058e-57</v>
+        <v>1.3312168749779992e-49</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.72007233143491567</v>
+        <v>0.94378918961257818</v>
       </c>
       <c r="B375">
-        <v>0.64765671781885303</v>
+        <v>0.91308614747135852</v>
       </c>
       <c r="C375">
-        <v>0.7054261512774197</v>
+        <v>0.9179176209887745</v>
       </c>
       <c r="D375">
-        <v>0.15023967377725805</v>
+        <v>0.026617928626185422</v>
       </c>
       <c r="E375">
-        <v>0.24882016563030096</v>
+        <v>0.058200355808670487</v>
       </c>
       <c r="F375">
-        <v>0.23287173728650254</v>
+        <v>0.063075969412133046</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.84976032622274189</v>
+        <v>0.97338207137381449</v>
       </c>
       <c r="B376">
-        <v>0.75117983436969893</v>
+        <v>0.94179964419132944</v>
       </c>
       <c r="C376">
-        <v>0.76712826271349754</v>
+        <v>0.936924030587867</v>
       </c>
       <c r="D376">
-        <v>0.27992766856508422</v>
+        <v>0.056210810387421817</v>
       </c>
       <c r="E376">
-        <v>0.35234328218114686</v>
+        <v>0.086913852528641436</v>
       </c>
       <c r="F376">
-        <v>0.29457384872258047</v>
+        <v>0.082082379011225601</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B377">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C377">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D377">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E377">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F377">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B378">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C378">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D378">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E378">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F378">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="379">
@@ -7128,162 +7344,162 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.31781933183183186</v>
+        <v>0.85479667694710648</v>
       </c>
       <c r="B381">
-        <v>0.45915779953379954</v>
+        <v>0.8702691686665982</v>
       </c>
       <c r="C381">
-        <v>0.43895894881514996</v>
+        <v>0.8468897391953083</v>
       </c>
       <c r="D381">
-        <v>0.68218066816816814</v>
+        <v>0.14520332305289352</v>
       </c>
       <c r="E381">
-        <v>0.54084220046620046</v>
+        <v>0.12973083133340185</v>
       </c>
       <c r="F381">
-        <v>0.56104105118485004</v>
+        <v>0.15311026080469173</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.038047113304199874</v>
+        <v>0.013491670211904458</v>
       </c>
       <c r="B382">
-        <v>0.028705039872945048</v>
+        <v>0.0093125085166679625</v>
       </c>
       <c r="C382">
-        <v>0.017568463639934338</v>
+        <v>0.0064863722796737111</v>
       </c>
       <c r="D382">
-        <v>0.038047113304199874</v>
+        <v>0.013491670211904458</v>
       </c>
       <c r="E382">
-        <v>0.028705039872945048</v>
+        <v>0.0093125085166679625</v>
       </c>
       <c r="F382">
-        <v>0.017568463639934338</v>
+        <v>0.0064863722796737111</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>8.3533099946573088</v>
+        <v>63.357365212860849</v>
       </c>
       <c r="B383">
-        <v>15.995720666689023</v>
+        <v>93.45163734443301</v>
       </c>
       <c r="C383">
-        <v>24.985619563076977</v>
+        <v>130.56446695932013</v>
       </c>
       <c r="D383">
-        <v>17.929892938628406</v>
+        <v>10.762442364235413</v>
       </c>
       <c r="E383">
-        <v>18.841367329921486</v>
+        <v>13.930814785425813</v>
       </c>
       <c r="F383">
-        <v>31.93455402153463</v>
+        <v>23.604914149699983</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1.7624349105407147e-16</v>
+        <v>0</v>
       </c>
       <c r="B384">
-        <v>1.7374863004268923e-52</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>7.2446472153275088e-112</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>4.4386660126197443e-64</v>
+        <v>1.0203575301073504e-26</v>
       </c>
       <c r="E384">
-        <v>8.2423410220553305e-70</v>
+        <v>2.6758946853091665e-43</v>
       </c>
       <c r="F384">
-        <v>1.1309111608766495e-163</v>
+        <v>7.8216067343679555e-117</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.2431752656501856</v>
+        <v>0.82834702576723562</v>
       </c>
       <c r="B385">
-        <v>0.4028418083864137</v>
+        <v>0.85201252601177635</v>
       </c>
       <c r="C385">
-        <v>0.40449164108107422</v>
+        <v>0.83417357570142348</v>
       </c>
       <c r="D385">
-        <v>0.60753660198652182</v>
+        <v>0.11875367187302267</v>
       </c>
       <c r="E385">
-        <v>0.48452620931881463</v>
+        <v>0.11147418867858001</v>
       </c>
       <c r="F385">
-        <v>0.52657374345077423</v>
+        <v>0.14039409731080688</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.39246339801347813</v>
+        <v>0.88124632812697734</v>
       </c>
       <c r="B386">
-        <v>0.51547379068118537</v>
+        <v>0.88852581132142006</v>
       </c>
       <c r="C386">
-        <v>0.47342625654922571</v>
+        <v>0.85960590268919312</v>
       </c>
       <c r="D386">
-        <v>0.75682473434981445</v>
+        <v>0.17165297423276438</v>
       </c>
       <c r="E386">
-        <v>0.5971581916135863</v>
+        <v>0.14798747398822368</v>
       </c>
       <c r="F386">
-        <v>0.59550835891892584</v>
+        <v>0.16582642429857658</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B387">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C387">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D387">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E387">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F387">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B388">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C388">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D388">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E388">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F388">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="389">
@@ -7308,62 +7524,62 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.98249459459459454</v>
+        <v>0.99677585227272725</v>
       </c>
       <c r="B391">
-        <v>0.97734771820771815</v>
+        <v>0.99475349200655871</v>
       </c>
       <c r="C391">
-        <v>0.97890269418666587</v>
+        <v>0.99386306255474222</v>
       </c>
       <c r="D391">
-        <v>0.017505405405405405</v>
+        <v>0.0032241477272727274</v>
       </c>
       <c r="E391">
-        <v>0.022652281792281792</v>
+        <v>0.005246507993441279</v>
       </c>
       <c r="F391">
-        <v>0.02109730581333423</v>
+        <v>0.0061369374452577806</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.0098997644222902567</v>
+        <v>0.0018535132156289999</v>
       </c>
       <c r="B392">
-        <v>0.0084354447545023723</v>
+        <v>0.0019727936351405613</v>
       </c>
       <c r="C392">
-        <v>0.0051872818423553497</v>
+        <v>0.0015435962032455479</v>
       </c>
       <c r="D392">
-        <v>0.0098997644222902567</v>
+        <v>0.0018535132156289999</v>
       </c>
       <c r="E392">
-        <v>0.0084354447545023723</v>
+        <v>0.0019727936351405613</v>
       </c>
       <c r="F392">
-        <v>0.0051872818423553497</v>
+        <v>0.0015435962032455479</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>99.244239830840314</v>
+        <v>537.77650133153531</v>
       </c>
       <c r="B393">
-        <v>115.86202585063036</v>
+        <v>504.23595975140233</v>
       </c>
       <c r="C393">
-        <v>188.71207000816887</v>
+        <v>643.86208029344527</v>
       </c>
       <c r="D393">
-        <v>1.7682648453725149</v>
+        <v>1.7394792225307092</v>
       </c>
       <c r="E393">
-        <v>2.6853689937559322</v>
+        <v>2.6594307179359213</v>
       </c>
       <c r="F393">
-        <v>4.0671215589386094</v>
+        <v>3.9757401789109905</v>
       </c>
     </row>
     <row r="394">
@@ -7377,93 +7593,93 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0.077263279038020383</v>
+        <v>0.082012625204248041</v>
       </c>
       <c r="E394">
-        <v>0.0073419523300460874</v>
+        <v>0.0078524783897322321</v>
       </c>
       <c r="F394">
-        <v>5.0609818669730866e-05</v>
+        <v>7.116010203017877e-05</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.96307239389274601</v>
+        <v>0.99314214516006671</v>
       </c>
       <c r="B395">
-        <v>0.96079834450116708</v>
+        <v>0.99088594242375794</v>
       </c>
       <c r="C395">
-        <v>0.96872584302721443</v>
+        <v>0.99083693009692442</v>
       </c>
       <c r="D395">
-        <v>-0.001916795296443119</v>
+        <v>-0.00040955938538782873</v>
       </c>
       <c r="E395">
-        <v>0.0061029080857306905</v>
+        <v>0.0013789584106404661</v>
       </c>
       <c r="F395">
-        <v>0.010920454653882843</v>
+        <v>0.0031108049874399709</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1.001916795296443</v>
+        <v>1.0004095593853879</v>
       </c>
       <c r="B396">
-        <v>0.99389709191426923</v>
+        <v>0.99862104158935949</v>
       </c>
       <c r="C396">
-        <v>0.98907954534611731</v>
+        <v>0.99688919501256001</v>
       </c>
       <c r="D396">
-        <v>0.03692760610725393</v>
+        <v>0.0068578548399332835</v>
       </c>
       <c r="E396">
-        <v>0.039201655498832894</v>
+        <v>0.0091140575762420923</v>
       </c>
       <c r="F396">
-        <v>0.031274156972785613</v>
+        <v>0.0091630699030755894</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B397">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C397">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D397">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E397">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F397">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B398">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C398">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D398">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E398">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F398">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="399">
@@ -7488,162 +7704,162 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.91476974474474471</v>
+        <v>0.98251943102398465</v>
       </c>
       <c r="B401">
-        <v>0.86407620616420622</v>
+        <v>0.96732948619195813</v>
       </c>
       <c r="C401">
-        <v>0.84586115000272577</v>
+        <v>0.95655201651372013</v>
       </c>
       <c r="D401">
-        <v>0.085230255255255266</v>
+        <v>0.01748056897601525</v>
       </c>
       <c r="E401">
-        <v>0.13592379383579384</v>
+        <v>0.032670513808041854</v>
       </c>
       <c r="F401">
-        <v>0.15413884999727429</v>
+        <v>0.043447983486279845</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.02388979921911373</v>
+        <v>0.0054096105853797365</v>
       </c>
       <c r="B402">
-        <v>0.019778941338153017</v>
+        <v>0.0050471764367966132</v>
       </c>
       <c r="C402">
-        <v>0.012855280326381287</v>
+        <v>0.0039151141987034616</v>
       </c>
       <c r="D402">
-        <v>0.02388979921911373</v>
+        <v>0.0054096105853797365</v>
       </c>
       <c r="E402">
-        <v>0.019778941338153017</v>
+        <v>0.0050471764367966132</v>
       </c>
       <c r="F402">
-        <v>0.012855280326381287</v>
+        <v>0.0039151141987034616</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>38.291227831368985</v>
+        <v>181.62479822103776</v>
       </c>
       <c r="B403">
-        <v>43.68667621746912</v>
+        <v>191.65755314983824</v>
       </c>
       <c r="C403">
-        <v>65.79873239067922</v>
+        <v>244.32289020598535</v>
       </c>
       <c r="D403">
-        <v>3.5676421753709975</v>
+        <v>3.2313913728391177</v>
       </c>
       <c r="E403">
-        <v>6.8721470735949195</v>
+        <v>6.4730278834431765</v>
       </c>
       <c r="F403">
-        <v>11.990314180932668</v>
+        <v>11.097500936414111</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>3.5666653811143035e-212</v>
+        <v>0</v>
       </c>
       <c r="B404">
-        <v>6.950818167940804e-253</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
       <c r="D404">
-        <v>0.00037398909423846379</v>
+        <v>0.0012399507270764373</v>
       </c>
       <c r="E404">
-        <v>1.0003310754150347e-11</v>
+        <v>1.0534506547203074e-10</v>
       </c>
       <c r="F404">
-        <v>2.047762587254034e-31</v>
+        <v>2.7731093718451347e-28</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.86790070267786801</v>
+        <v>0.97191419751657337</v>
       </c>
       <c r="B405">
-        <v>0.82527219508342287</v>
+        <v>0.95743478419436978</v>
       </c>
       <c r="C405">
-        <v>0.82064056656991913</v>
+        <v>0.94887665806968591</v>
       </c>
       <c r="D405">
-        <v>0.038361213188378603</v>
+        <v>0.0068753354686040321</v>
       </c>
       <c r="E405">
-        <v>0.097119782755010445</v>
+        <v>0.022775811810453534</v>
       </c>
       <c r="F405">
-        <v>0.12891826656446764</v>
+        <v>0.035772625042245605</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.9616387868116214</v>
+        <v>0.99312466453139592</v>
       </c>
       <c r="B406">
-        <v>0.90288021724498957</v>
+        <v>0.97722418818954648</v>
       </c>
       <c r="C406">
-        <v>0.87108173343553241</v>
+        <v>0.96422737495775435</v>
       </c>
       <c r="D406">
-        <v>0.13209929732213194</v>
+        <v>0.028085802483426466</v>
       </c>
       <c r="E406">
-        <v>0.17472780491657725</v>
+        <v>0.042565215805630177</v>
       </c>
       <c r="F406">
-        <v>0.17935943343008093</v>
+        <v>0.051123341930314085</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B407">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="C407">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="D407">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="E407">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="F407">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B408">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="C408">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="D408">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="E408">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="F408">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="409">
@@ -7668,26 +7884,26 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.7304281042315679</v>
+        <v>0.93260995994331386</v>
       </c>
       <c r="B411">
-        <v>0.26957189576843199</v>
+        <v>0.067390040056685932</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.012586274803744904</v>
+        <v>0.0035151258315764054</v>
       </c>
       <c r="B412">
-        <v>0.012586274803744904</v>
+        <v>0.0035151258315764054</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>58.033700647807031</v>
+        <v>265.31339264320798</v>
       </c>
       <c r="B413">
-        <v>21.417925476108621</v>
+        <v>19.171444575702136</v>
       </c>
     </row>
     <row r="414">
@@ -7695,39 +7911,39 @@
         <v>0</v>
       </c>
       <c r="B414">
-        <v>8.3620748492815919e-87</v>
+        <v>4.4142681468702311e-79</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.70573527873598907</v>
+        <v>0.925718755916068</v>
       </c>
       <c r="B415">
-        <v>0.24487907027285322</v>
+        <v>0.060498836029440048</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.75512092972714673</v>
+        <v>0.93950116397055972</v>
       </c>
       <c r="B416">
-        <v>0.29426472126401076</v>
+        <v>0.074281244083931816</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B417">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B418">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="419">
@@ -7740,66 +7956,66 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.43099142799195223</v>
+        <v>0.85775472450258439</v>
       </c>
       <c r="B421">
-        <v>0.56900857200804777</v>
+        <v>0.14224527549741553</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.013991831480629385</v>
+        <v>0.0047388024268040525</v>
       </c>
       <c r="B422">
-        <v>0.013991831480629385</v>
+        <v>0.0047388024268040525</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>30.803074535926676</v>
+        <v>181.00664413668585</v>
       </c>
       <c r="B423">
-        <v>40.66719734266357</v>
+        <v>30.017135699271751</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>4.4029112012869032e-155</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>3.3547412590610871e-230</v>
+        <v>5.0106229987081061e-182</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.40354106173966542</v>
+        <v>0.84846457219151628</v>
       </c>
       <c r="B425">
-        <v>0.54155820575576097</v>
+        <v>0.13295512318634745</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.45844179424423903</v>
+        <v>0.8670448768136525</v>
       </c>
       <c r="B426">
-        <v>0.59645893826033458</v>
+        <v>0.15153542780848361</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B427">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B428">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="429">
@@ -7812,26 +8028,26 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.97901550655503633</v>
+        <v>0.99475404850879356</v>
       </c>
       <c r="B431">
-        <v>0.020984493444963656</v>
+        <v>0.0052459514912063894</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0040651825416372616</v>
+        <v>0.00102545351060753</v>
       </c>
       <c r="B432">
-        <v>0.0040651825416372616</v>
+        <v>0.00102545351060753</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>240.82940840357332</v>
+        <v>970.0625510750375</v>
       </c>
       <c r="B433">
-        <v>5.1620052064161683</v>
+        <v>5.1157379997640513</v>
       </c>
     </row>
     <row r="434">
@@ -7839,39 +8055,39 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>2.844518423659412e-07</v>
+        <v>3.2431108148809636e-07</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.97104008533839048</v>
+        <v>0.99274370529474054</v>
       </c>
       <c r="B435">
-        <v>0.013009072228317793</v>
+        <v>0.0032356082771533871</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.98699092777168218</v>
+        <v>0.99676439172284659</v>
       </c>
       <c r="B436">
-        <v>0.02895991466160952</v>
+        <v>0.0072562947052593916</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B437">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B438">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="439">
@@ -7884,26 +8100,26 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.85956496122144332</v>
+        <v>0.96489232042005901</v>
       </c>
       <c r="B441">
-        <v>0.14043503877855659</v>
+        <v>0.035107679579940862</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.0098438509426383471</v>
+        <v>0.0026019088224873131</v>
       </c>
       <c r="B442">
-        <v>0.0098438509426383471</v>
+        <v>0.0026019088224873131</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>87.319989527499175</v>
+        <v>370.84017398336943</v>
       </c>
       <c r="B443">
-        <v>14.266270344491545</v>
+        <v>13.493047595103439</v>
       </c>
     </row>
     <row r="444">
@@ -7911,39 +8127,39 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>7.3484183528232123e-43</v>
+        <v>8.9584578611366276e-41</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.84025245634440582</v>
+        <v>0.959791426336842</v>
       </c>
       <c r="B445">
-        <v>0.12112253390151911</v>
+        <v>0.030006785496723906</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.87887746609848083</v>
+        <v>0.96999321450327602</v>
       </c>
       <c r="B446">
-        <v>0.15974754365559407</v>
+        <v>0.040208573663157818</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
       <c r="B447">
-        <v>1236.0048348106366</v>
+        <v>4953.0012101653892</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
       <c r="B448">
-        <v>1.9618851392178183</v>
+        <v>1.9604430559333443</v>
       </c>
     </row>
     <row r="449">
